--- a/Swap Rates-BB.xlsx
+++ b/Swap Rates-BB.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Amin\Dropbox\MFin Courses\project\TheCode\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15300" windowHeight="8475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="15300" windowHeight="8475" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Par Rates" sheetId="1" r:id="rId1"/>
     <sheet name="Zero Rates" sheetId="2" r:id="rId2"/>
     <sheet name="Par Rates-DES" sheetId="4" r:id="rId3"/>
     <sheet name="Zero Rates-DES" sheetId="5" r:id="rId4"/>
+    <sheet name="LIBOR3M" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>USSWAP2 Curncy</t>
   </si>
@@ -59,18 +55,153 @@
   <si>
     <t>I05210Y Index</t>
   </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Copyright, 2014, ICE Benchmark Administration.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>such irregularity, inaccuracy or use of the Information.</t>
+  </si>
+  <si>
+    <t>direct, indirect or consequential loss or damage resulting from any</t>
+  </si>
+  <si>
+    <t>(2) shall be liable for any loss of business or profits nor any</t>
+  </si>
+  <si>
+    <t>negligence of any of IBA or the LIBOR Contributor Banks; or</t>
+  </si>
+  <si>
+    <t>ICE LIBOR rate by the subscriber, whether or not arising from the</t>
+  </si>
+  <si>
+    <t>provision and accuracy of the ICE LIBOR rate or any use made of the</t>
+  </si>
+  <si>
+    <t>(1) accept any responsibility or liability for the frequency of</t>
+  </si>
+  <si>
+    <t>LIBOR Contributor Banks:</t>
+  </si>
+  <si>
+    <t>that, to the fullest extent permitted by law, none of the IBA or the</t>
+  </si>
+  <si>
+    <t>which ICE LIBOR is compiled, the subscriber acknowledges and agrees</t>
+  </si>
+  <si>
+    <t>coordinating and the Libor Contributor Banks supplying the data from</t>
+  </si>
+  <si>
+    <t>In consideration for ICE Benchmark Administration Limited ("IBA")</t>
+  </si>
+  <si>
+    <t>reference rate for short term interest rates</t>
+  </si>
+  <si>
+    <t>the London market. Libor is the most widely used "benchmark" or</t>
+  </si>
+  <si>
+    <t>leading banks borrow funds of a sizeable amount from other banks in</t>
+  </si>
+  <si>
+    <t>London Interbank Offered Rate is the average interest rate at which</t>
+  </si>
+  <si>
+    <t>source.</t>
+  </si>
+  <si>
+    <t>The data series is lagged by one week due to an agreement with the</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>2015-01-14 7:11 AM CST</t>
+  </si>
+  <si>
+    <t>Last Updated:</t>
+  </si>
+  <si>
+    <t>1988-11-30 to 2014-10-31</t>
+  </si>
+  <si>
+    <t>Date Range:</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Units:</t>
+  </si>
+  <si>
+    <t>End of Period</t>
+  </si>
+  <si>
+    <t>Aggregation Method:</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Frequency:</t>
+  </si>
+  <si>
+    <t>Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>Seasonal Adjustment:</t>
+  </si>
+  <si>
+    <t>ICE Libor Rates (Not a Press Release)</t>
+  </si>
+  <si>
+    <t>Release:</t>
+  </si>
+  <si>
+    <t>ICE Benchmark Administration Limited (IBA)</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>GBP3MTD156N</t>
+  </si>
+  <si>
+    <t>Series ID:</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,15 +221,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,10 +275,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -159,7 +298,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -196,10 +335,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -219,7 +358,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -251,10 +390,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -274,7 +413,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -331,7 +470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,10 +502,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +536,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,14 +711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N314"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H293" sqref="H293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -595,7 +732,7 @@
     <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -644,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>32477</v>
       </c>
@@ -676,7 +813,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>32507</v>
       </c>
@@ -708,7 +845,7 @@
         <v>9.7100000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>32539</v>
       </c>
@@ -740,7 +877,7 @@
         <v>9.61</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>32567</v>
       </c>
@@ -772,7 +909,7 @@
         <v>9.98</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>32598</v>
       </c>
@@ -804,7 +941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>32626</v>
       </c>
@@ -836,7 +973,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>32659</v>
       </c>
@@ -868,7 +1005,7 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>32689</v>
       </c>
@@ -900,7 +1037,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>32720</v>
       </c>
@@ -932,7 +1069,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>32751</v>
       </c>
@@ -964,7 +1101,7 @@
         <v>9.08</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>32780</v>
       </c>
@@ -996,7 +1133,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>32812</v>
       </c>
@@ -1028,7 +1165,7 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>32842</v>
       </c>
@@ -1060,7 +1197,7 @@
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>32871</v>
       </c>
@@ -1092,7 +1229,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>32904</v>
       </c>
@@ -1124,7 +1261,7 @@
         <v>9.34</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>32932</v>
       </c>
@@ -1156,7 +1293,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>32962</v>
       </c>
@@ -1188,7 +1325,7 @@
         <v>9.49</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>32993</v>
       </c>
@@ -1220,7 +1357,7 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>33024</v>
       </c>
@@ -1252,7 +1389,7 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>33053</v>
       </c>
@@ -1284,7 +1421,7 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>33085</v>
       </c>
@@ -1316,7 +1453,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>33116</v>
       </c>
@@ -1348,7 +1485,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>33144</v>
       </c>
@@ -1380,7 +1517,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>33177</v>
       </c>
@@ -1412,7 +1549,7 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>33207</v>
       </c>
@@ -1444,7 +1581,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>33238</v>
       </c>
@@ -1476,7 +1613,7 @@
         <v>8.8420000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>33269</v>
       </c>
@@ -1508,7 +1645,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>33297</v>
       </c>
@@ -1540,7 +1677,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>33326</v>
       </c>
@@ -1572,7 +1709,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>33358</v>
       </c>
@@ -1604,7 +1741,7 @@
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>33389</v>
       </c>
@@ -1636,7 +1773,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>33417</v>
       </c>
@@ -1668,7 +1805,7 @@
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33450</v>
       </c>
@@ -1700,7 +1837,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>33480</v>
       </c>
@@ -1732,7 +1869,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>33511</v>
       </c>
@@ -1764,7 +1901,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>33542</v>
       </c>
@@ -1796,7 +1933,7 @@
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>33571</v>
       </c>
@@ -1828,7 +1965,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>33603</v>
       </c>
@@ -1860,7 +1997,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>33634</v>
       </c>
@@ -1892,7 +2029,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>33662</v>
       </c>
@@ -1924,7 +2061,7 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>33694</v>
       </c>
@@ -1956,7 +2093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>33724</v>
       </c>
@@ -1988,7 +2125,7 @@
         <v>7.9399999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>33753</v>
       </c>
@@ -2020,7 +2157,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>33785</v>
       </c>
@@ -2052,7 +2189,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>33816</v>
       </c>
@@ -2084,7 +2221,7 @@
         <v>7.01</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>33847</v>
       </c>
@@ -2116,7 +2253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>33877</v>
       </c>
@@ -2148,7 +2285,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>33907</v>
       </c>
@@ -2180,7 +2317,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>33938</v>
       </c>
@@ -2212,7 +2349,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>33969</v>
       </c>
@@ -2244,7 +2381,7 @@
         <v>7.1580000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>33998</v>
       </c>
@@ -2276,7 +2413,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>34026</v>
       </c>
@@ -2308,7 +2445,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>34059</v>
       </c>
@@ -2340,7 +2477,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>34089</v>
       </c>
@@ -2372,7 +2509,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>34120</v>
       </c>
@@ -2404,7 +2541,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>34150</v>
       </c>
@@ -2436,7 +2573,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>34180</v>
       </c>
@@ -2468,7 +2605,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>34212</v>
       </c>
@@ -2500,7 +2637,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>34242</v>
       </c>
@@ -2532,7 +2669,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>34271</v>
       </c>
@@ -2564,7 +2701,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>34303</v>
       </c>
@@ -2596,7 +2733,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>34334</v>
       </c>
@@ -2628,7 +2765,7 @@
         <v>6.125</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>34365</v>
       </c>
@@ -2660,7 +2797,7 @@
         <v>5.9350000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="1">
         <v>34393</v>
       </c>
@@ -2692,7 +2829,7 @@
         <v>6.4850000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="1">
         <v>34424</v>
       </c>
@@ -2724,7 +2861,7 @@
         <v>7.1849999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" s="1">
         <v>34453</v>
       </c>
@@ -2756,7 +2893,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" s="1">
         <v>34485</v>
       </c>
@@ -2788,7 +2925,7 @@
         <v>7.5149999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" s="1">
         <v>34515</v>
       </c>
@@ -2820,7 +2957,7 @@
         <v>7.6950000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" s="1">
         <v>34544</v>
       </c>
@@ -2852,7 +2989,7 @@
         <v>7.4649999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" s="1">
         <v>34577</v>
       </c>
@@ -2884,7 +3021,7 @@
         <v>7.5149999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" s="1">
         <v>34607</v>
       </c>
@@ -2916,7 +3053,7 @@
         <v>7.97</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" s="1">
         <v>34638</v>
       </c>
@@ -2948,7 +3085,7 @@
         <v>8.1649999999999991</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" s="1">
         <v>34668</v>
       </c>
@@ -2980,7 +3117,7 @@
         <v>8.2750000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" s="1">
         <v>34698</v>
       </c>
@@ -3012,7 +3149,7 @@
         <v>8.2050000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" s="1">
         <v>34730</v>
       </c>
@@ -3044,7 +3181,7 @@
         <v>7.9850000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" s="1">
         <v>34758</v>
       </c>
@@ -3076,7 +3213,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" s="1">
         <v>34789</v>
       </c>
@@ -3108,7 +3245,7 @@
         <v>7.5750000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" s="1">
         <v>34817</v>
       </c>
@@ -3140,7 +3277,7 @@
         <v>7.4450000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" s="1">
         <v>34850</v>
       </c>
@@ -3172,7 +3309,7 @@
         <v>6.6749999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" s="1">
         <v>34880</v>
       </c>
@@ -3204,7 +3341,7 @@
         <v>6.5949999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" s="1">
         <v>34911</v>
       </c>
@@ -3236,7 +3373,7 @@
         <v>6.8049999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" s="1">
         <v>34942</v>
       </c>
@@ -3268,7 +3405,7 @@
         <v>6.665</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" s="1">
         <v>34971</v>
       </c>
@@ -3300,7 +3437,7 @@
         <v>6.5649999999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" s="1">
         <v>35003</v>
       </c>
@@ -3332,7 +3469,7 @@
         <v>6.3849999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" s="1">
         <v>35033</v>
       </c>
@@ -3364,7 +3501,7 @@
         <v>6.1449999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" s="1">
         <v>35062</v>
       </c>
@@ -3396,7 +3533,7 @@
         <v>5.9550000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" s="1">
         <v>35095</v>
       </c>
@@ -3428,7 +3565,7 @@
         <v>5.9550000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" s="1">
         <v>35124</v>
       </c>
@@ -3460,7 +3597,7 @@
         <v>6.5350000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" s="1">
         <v>35153</v>
       </c>
@@ -3492,7 +3629,7 @@
         <v>6.7549999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" s="1">
         <v>35185</v>
       </c>
@@ -3524,7 +3661,7 @@
         <v>7.0549999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" s="1">
         <v>35216</v>
       </c>
@@ -3556,7 +3693,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" s="1">
         <v>35244</v>
       </c>
@@ -3588,7 +3725,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" s="1">
         <v>35277</v>
       </c>
@@ -3620,7 +3757,7 @@
         <v>7.1449999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" s="1">
         <v>35307</v>
       </c>
@@ -3652,7 +3789,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>35338</v>
       </c>
@@ -3684,7 +3821,7 @@
         <v>7.0350000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>35369</v>
       </c>
@@ -3716,7 +3853,7 @@
         <v>6.665</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>35398</v>
       </c>
@@ -3748,7 +3885,7 @@
         <v>6.3550000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>35430</v>
       </c>
@@ -3780,7 +3917,7 @@
         <v>6.7450000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>35461</v>
       </c>
@@ -3812,7 +3949,7 @@
         <v>6.8250000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" s="1">
         <v>35489</v>
       </c>
@@ -3844,7 +3981,7 @@
         <v>6.7149999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" s="1">
         <v>35520</v>
       </c>
@@ -3876,7 +4013,7 @@
         <v>7.2649999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" s="1">
         <v>35550</v>
       </c>
@@ -3908,7 +4045,7 @@
         <v>7.085</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" s="1">
         <v>35580</v>
       </c>
@@ -3940,7 +4077,7 @@
         <v>7.0149999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>35611</v>
       </c>
@@ -3972,7 +4109,7 @@
         <v>6.8849999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107" s="1">
         <v>35642</v>
       </c>
@@ -4004,7 +4141,7 @@
         <v>6.415</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108" s="1">
         <v>35671</v>
       </c>
@@ -4036,7 +4173,7 @@
         <v>6.7649999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109" s="1">
         <v>35703</v>
       </c>
@@ -4068,7 +4205,7 @@
         <v>6.5449999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110" s="1">
         <v>35734</v>
       </c>
@@ -4100,7 +4237,7 @@
         <v>6.3650000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" s="1">
         <v>35762</v>
       </c>
@@ -4132,7 +4269,7 @@
         <v>6.3250000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112" s="1">
         <v>35795</v>
       </c>
@@ -4164,7 +4301,7 @@
         <v>6.2149999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113" s="1">
         <v>35825</v>
       </c>
@@ -4196,7 +4333,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114" s="1">
         <v>35853</v>
       </c>
@@ -4228,7 +4365,7 @@
         <v>6.1050000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="A115" s="1">
         <v>35885</v>
       </c>
@@ -4260,7 +4397,7 @@
         <v>6.165</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116" s="1">
         <v>35915</v>
       </c>
@@ -4292,7 +4429,7 @@
         <v>6.165</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117" s="1">
         <v>35944</v>
       </c>
@@ -4324,7 +4461,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" s="1">
         <v>35976</v>
       </c>
@@ -4356,7 +4493,7 @@
         <v>5.9950000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="A119" s="1">
         <v>36007</v>
       </c>
@@ -4388,7 +4525,7 @@
         <v>6.0449999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120" s="1">
         <v>36038</v>
       </c>
@@ -4420,7 +4557,7 @@
         <v>5.8049999999999997</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121" s="1">
         <v>36068</v>
       </c>
@@ -4452,7 +4589,7 @@
         <v>5.2149999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="A122" s="1">
         <v>36098</v>
       </c>
@@ -4484,7 +4621,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14">
       <c r="A123" s="1">
         <v>36129</v>
       </c>
@@ -4516,7 +4653,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14">
       <c r="A124" s="1">
         <v>36160</v>
       </c>
@@ -4548,7 +4685,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14">
       <c r="A125" s="1">
         <v>36189</v>
       </c>
@@ -4580,7 +4717,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14">
       <c r="A126" s="1">
         <v>36217</v>
       </c>
@@ -4612,7 +4749,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14">
       <c r="A127" s="1">
         <v>36250</v>
       </c>
@@ -4644,7 +4781,7 @@
         <v>6.0049999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14">
       <c r="A128" s="1">
         <v>36280</v>
       </c>
@@ -4676,7 +4813,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14">
       <c r="A129" s="1">
         <v>36311</v>
       </c>
@@ -4708,7 +4845,7 @@
         <v>6.415</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130" s="1">
         <v>36341</v>
       </c>
@@ -4740,7 +4877,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14">
       <c r="A131" s="1">
         <v>36371</v>
       </c>
@@ -4772,7 +4909,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14">
       <c r="A132" s="1">
         <v>36403</v>
       </c>
@@ -4804,7 +4941,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" s="1">
         <v>36433</v>
       </c>
@@ -4836,7 +4973,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14">
       <c r="A134" s="1">
         <v>36462</v>
       </c>
@@ -4868,7 +5005,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14">
       <c r="A135" s="1">
         <v>36494</v>
       </c>
@@ -4900,7 +5037,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136" s="1">
         <v>36525</v>
       </c>
@@ -4932,7 +5069,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14">
       <c r="A137" s="1">
         <v>36556</v>
       </c>
@@ -4964,7 +5101,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14">
       <c r="A138" s="1">
         <v>36585</v>
       </c>
@@ -4996,7 +5133,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14">
       <c r="A139" s="1">
         <v>36616</v>
       </c>
@@ -5028,7 +5165,7 @@
         <v>7.2670000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14">
       <c r="A140" s="1">
         <v>36644</v>
       </c>
@@ -5060,7 +5197,7 @@
         <v>7.4015000000000004</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14">
       <c r="A141" s="1">
         <v>36677</v>
       </c>
@@ -5092,7 +5229,7 @@
         <v>7.6310000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14">
       <c r="A142" s="1">
         <v>36707</v>
       </c>
@@ -5124,7 +5261,7 @@
         <v>7.2640000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14">
       <c r="A143" s="1">
         <v>36738</v>
       </c>
@@ -5156,7 +5293,7 @@
         <v>7.2560000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14">
       <c r="A144" s="1">
         <v>36769</v>
       </c>
@@ -5188,7 +5325,7 @@
         <v>6.9969999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14">
       <c r="A145" s="1">
         <v>36798</v>
       </c>
@@ -5220,7 +5357,7 @@
         <v>6.9160000000000004</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14">
       <c r="A146" s="1">
         <v>36830</v>
       </c>
@@ -5252,7 +5389,7 @@
         <v>6.8719999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147" s="1">
         <v>36860</v>
       </c>
@@ -5284,7 +5421,7 @@
         <v>6.649</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14">
       <c r="A148" s="1">
         <v>36889</v>
       </c>
@@ -5316,7 +5453,7 @@
         <v>6.133</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14">
       <c r="A149" s="1">
         <v>36922</v>
       </c>
@@ -5348,7 +5485,7 @@
         <v>5.9080000000000004</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14">
       <c r="A150" s="1">
         <v>36950</v>
       </c>
@@ -5380,7 +5517,7 @@
         <v>5.8010000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14">
       <c r="A151" s="1">
         <v>36980</v>
       </c>
@@ -5412,7 +5549,7 @@
         <v>5.8479999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14">
       <c r="A152" s="1">
         <v>37011</v>
       </c>
@@ -5444,7 +5581,7 @@
         <v>6.1520000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14">
       <c r="A153" s="1">
         <v>37042</v>
       </c>
@@ -5476,7 +5613,7 @@
         <v>6.1844999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14">
       <c r="A154" s="1">
         <v>37071</v>
       </c>
@@ -5508,7 +5645,7 @@
         <v>6.3174999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14">
       <c r="A155" s="1">
         <v>37103</v>
       </c>
@@ -5540,7 +5677,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14">
       <c r="A156" s="1">
         <v>37134</v>
       </c>
@@ -5572,7 +5709,7 @@
         <v>5.649</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14">
       <c r="A157" s="1">
         <v>37162</v>
       </c>
@@ -5604,7 +5741,7 @@
         <v>5.2530000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14">
       <c r="A158" s="1">
         <v>37195</v>
       </c>
@@ -5636,7 +5773,7 @@
         <v>4.899</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14">
       <c r="A159" s="1">
         <v>37225</v>
       </c>
@@ -5668,7 +5805,7 @@
         <v>5.4480000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14">
       <c r="A160" s="1">
         <v>37256</v>
       </c>
@@ -5700,7 +5837,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14">
       <c r="A161" s="1">
         <v>37287</v>
       </c>
@@ -5732,7 +5869,7 @@
         <v>5.7569999999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14">
       <c r="A162" s="1">
         <v>37315</v>
       </c>
@@ -5764,7 +5901,7 @@
         <v>5.5419999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14">
       <c r="A163" s="1">
         <v>37344</v>
       </c>
@@ -5796,7 +5933,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14">
       <c r="A164" s="1">
         <v>37376</v>
       </c>
@@ -5828,7 +5965,7 @@
         <v>5.633</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14">
       <c r="A165" s="1">
         <v>37407</v>
       </c>
@@ -5860,7 +5997,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14">
       <c r="A166" s="1">
         <v>37435</v>
       </c>
@@ -5892,7 +6029,7 @@
         <v>5.3479999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14">
       <c r="A167" s="1">
         <v>37468</v>
       </c>
@@ -5924,7 +6061,7 @@
         <v>5.0810000000000004</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14">
       <c r="A168" s="1">
         <v>37498</v>
       </c>
@@ -5956,7 +6093,7 @@
         <v>4.6749999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14">
       <c r="A169" s="1">
         <v>37529</v>
       </c>
@@ -5988,7 +6125,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14">
       <c r="A170" s="1">
         <v>37560</v>
       </c>
@@ -6020,7 +6157,7 @@
         <v>4.4554999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14">
       <c r="A171" s="1">
         <v>37589</v>
       </c>
@@ -6052,7 +6189,7 @@
         <v>4.7149999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14">
       <c r="A172" s="1">
         <v>37621</v>
       </c>
@@ -6084,7 +6221,7 @@
         <v>4.2249999999999996</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14">
       <c r="A173" s="1">
         <v>37652</v>
       </c>
@@ -6116,7 +6253,7 @@
         <v>4.407</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14">
       <c r="A174" s="1">
         <v>37680</v>
       </c>
@@ -6148,7 +6285,7 @@
         <v>4.1050000000000004</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14">
       <c r="A175" s="1">
         <v>37711</v>
       </c>
@@ -6180,7 +6317,7 @@
         <v>4.2350000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14">
       <c r="A176" s="1">
         <v>37741</v>
       </c>
@@ -6212,7 +6349,7 @@
         <v>4.1849999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14">
       <c r="A177" s="1">
         <v>37771</v>
       </c>
@@ -6244,7 +6381,7 @@
         <v>3.7229999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14">
       <c r="A178" s="1">
         <v>37802</v>
       </c>
@@ -6276,7 +6413,7 @@
         <v>3.855</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14">
       <c r="A179" s="1">
         <v>37833</v>
       </c>
@@ -6308,7 +6445,7 @@
         <v>4.9950000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14">
       <c r="A180" s="1">
         <v>37862</v>
       </c>
@@ -6340,7 +6477,7 @@
         <v>4.9550000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14">
       <c r="A181" s="1">
         <v>37894</v>
       </c>
@@ -6372,7 +6509,7 @@
         <v>4.3659999999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14">
       <c r="A182" s="1">
         <v>37925</v>
       </c>
@@ -6404,7 +6541,7 @@
         <v>4.7140000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14">
       <c r="A183" s="1">
         <v>37953</v>
       </c>
@@ -6436,7 +6573,7 @@
         <v>4.7050000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14">
       <c r="A184" s="1">
         <v>37986</v>
       </c>
@@ -6468,7 +6605,7 @@
         <v>4.6449999999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14">
       <c r="A185" s="1">
         <v>38016</v>
       </c>
@@ -6500,7 +6637,7 @@
         <v>4.5250000000000004</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14">
       <c r="A186" s="1">
         <v>38044</v>
       </c>
@@ -6532,7 +6669,7 @@
         <v>4.3745000000000003</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14">
       <c r="A187" s="1">
         <v>38077</v>
       </c>
@@ -6564,7 +6701,7 @@
         <v>4.2270000000000003</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14">
       <c r="A188" s="1">
         <v>38107</v>
       </c>
@@ -6596,7 +6733,7 @@
         <v>4.9850000000000003</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14">
       <c r="A189" s="1">
         <v>38138</v>
       </c>
@@ -6628,7 +6765,7 @@
         <v>5.1349999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14">
       <c r="A190" s="1">
         <v>38168</v>
       </c>
@@ -6660,7 +6797,7 @@
         <v>5.0635000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14">
       <c r="A191" s="1">
         <v>38198</v>
       </c>
@@ -6692,7 +6829,7 @@
         <v>4.9619999999999997</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14">
       <c r="A192" s="1">
         <v>38230</v>
       </c>
@@ -6724,7 +6861,7 @@
         <v>4.5649999999999995</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>38260</v>
       </c>
@@ -6756,7 +6893,7 @@
         <v>4.5549999999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14">
       <c r="A194" s="1">
         <v>38289</v>
       </c>
@@ -6788,7 +6925,7 @@
         <v>4.4535</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14">
       <c r="A195" s="1">
         <v>38321</v>
       </c>
@@ -6820,7 +6957,7 @@
         <v>4.7629999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14">
       <c r="A196" s="1">
         <v>38352</v>
       </c>
@@ -6852,7 +6989,7 @@
         <v>4.6390000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14">
       <c r="A197" s="1">
         <v>38383</v>
       </c>
@@ -6884,7 +7021,7 @@
         <v>4.5125000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14">
       <c r="A198" s="1">
         <v>38411</v>
       </c>
@@ -6916,7 +7053,7 @@
         <v>4.7865000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14">
       <c r="A199" s="1">
         <v>38442</v>
       </c>
@@ -6948,7 +7085,7 @@
         <v>4.9399999999999995</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14">
       <c r="A200" s="1">
         <v>38471</v>
       </c>
@@ -6980,7 +7117,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14">
       <c r="A201" s="1">
         <v>38503</v>
       </c>
@@ -7012,7 +7149,7 @@
         <v>4.4020000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14">
       <c r="A202" s="1">
         <v>38533</v>
       </c>
@@ -7044,7 +7181,7 @@
         <v>4.3345000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14">
       <c r="A203" s="1">
         <v>38562</v>
       </c>
@@ -7076,7 +7213,7 @@
         <v>4.7219999999999995</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14">
       <c r="A204" s="1">
         <v>38595</v>
       </c>
@@ -7108,7 +7245,7 @@
         <v>4.4480000000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14">
       <c r="A205" s="1">
         <v>38625</v>
       </c>
@@ -7140,7 +7277,7 @@
         <v>4.7874999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14">
       <c r="A206" s="1">
         <v>38656</v>
       </c>
@@ -7172,7 +7309,7 @@
         <v>5.0750000000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14">
       <c r="A207" s="1">
         <v>38686</v>
       </c>
@@ -7204,7 +7341,7 @@
         <v>5.0445000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14">
       <c r="A208" s="1">
         <v>38716</v>
       </c>
@@ -7236,7 +7373,7 @@
         <v>4.944</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14">
       <c r="A209" s="1">
         <v>38748</v>
       </c>
@@ -7268,7 +7405,7 @@
         <v>5.0315000000000003</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14">
       <c r="A210" s="1">
         <v>38776</v>
       </c>
@@ -7300,7 +7437,7 @@
         <v>5.0730000000000004</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14">
       <c r="A211" s="1">
         <v>38807</v>
       </c>
@@ -7332,7 +7469,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14">
       <c r="A212" s="1">
         <v>38835</v>
       </c>
@@ -7364,7 +7501,7 @@
         <v>5.5679999999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14">
       <c r="A213" s="1">
         <v>38868</v>
       </c>
@@ -7396,7 +7533,7 @@
         <v>5.6840000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14">
       <c r="A214" s="1">
         <v>38898</v>
       </c>
@@ -7428,7 +7565,7 @@
         <v>5.7294999999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14">
       <c r="A215" s="1">
         <v>38929</v>
       </c>
@@ -7460,7 +7597,7 @@
         <v>5.5430000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14">
       <c r="A216" s="1">
         <v>38960</v>
       </c>
@@ -7492,7 +7629,7 @@
         <v>5.2874999999999996</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14">
       <c r="A217" s="1">
         <v>38989</v>
       </c>
@@ -7524,7 +7661,7 @@
         <v>5.1689999999999996</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14">
       <c r="A218" s="1">
         <v>39021</v>
       </c>
@@ -7556,7 +7693,7 @@
         <v>5.1322999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14">
       <c r="A219" s="1">
         <v>39051</v>
       </c>
@@ -7588,7 +7725,7 @@
         <v>4.9390000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14">
       <c r="A220" s="1">
         <v>39080</v>
       </c>
@@ -7620,7 +7757,7 @@
         <v>5.1769999999999996</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14">
       <c r="A221" s="1">
         <v>39113</v>
       </c>
@@ -7652,7 +7789,7 @@
         <v>5.3312999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14">
       <c r="A222" s="1">
         <v>39141</v>
       </c>
@@ -7684,7 +7821,7 @@
         <v>5.1115000000000004</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14">
       <c r="A223" s="1">
         <v>39171</v>
       </c>
@@ -7716,7 +7853,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14">
       <c r="A224" s="1">
         <v>39202</v>
       </c>
@@ -7748,7 +7885,7 @@
         <v>5.1689999999999996</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14">
       <c r="A225" s="1">
         <v>39233</v>
       </c>
@@ -7780,7 +7917,7 @@
         <v>5.4565000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14">
       <c r="A226" s="1">
         <v>39262</v>
       </c>
@@ -7812,7 +7949,7 @@
         <v>5.6654999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14">
       <c r="A227" s="1">
         <v>39294</v>
       </c>
@@ -7844,7 +7981,7 @@
         <v>5.4915000000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14">
       <c r="A228" s="1">
         <v>39325</v>
       </c>
@@ -7876,7 +8013,7 @@
         <v>5.2220000000000004</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14">
       <c r="A229" s="1">
         <v>39353</v>
       </c>
@@ -7908,7 +8045,7 @@
         <v>5.2110000000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14">
       <c r="A230" s="1">
         <v>39386</v>
       </c>
@@ -7940,7 +8077,7 @@
         <v>5.1085000000000003</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14">
       <c r="A231" s="1">
         <v>39416</v>
       </c>
@@ -7972,7 +8109,7 @@
         <v>4.5919999999999996</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14">
       <c r="A232" s="1">
         <v>39447</v>
       </c>
@@ -8004,7 +8141,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14">
       <c r="A233" s="1">
         <v>39478</v>
       </c>
@@ -8036,7 +8173,7 @@
         <v>4.2134999999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14">
       <c r="A234" s="1">
         <v>39507</v>
       </c>
@@ -8068,7 +8205,7 @@
         <v>4.2205000000000004</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14">
       <c r="A235" s="1">
         <v>39538</v>
       </c>
@@ -8100,7 +8237,7 @@
         <v>4.0705</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14">
       <c r="A236" s="1">
         <v>39568</v>
       </c>
@@ -8132,7 +8269,7 @@
         <v>4.3405000000000005</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14">
       <c r="A237" s="1">
         <v>39598</v>
       </c>
@@ -8164,7 +8301,7 @@
         <v>4.7069999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14">
       <c r="A238" s="1">
         <v>39629</v>
       </c>
@@ -8196,7 +8333,7 @@
         <v>4.6745000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14">
       <c r="A239" s="1">
         <v>39660</v>
       </c>
@@ -8228,7 +8365,7 @@
         <v>4.657</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14">
       <c r="A240" s="1">
         <v>39689</v>
       </c>
@@ -8260,7 +8397,7 @@
         <v>4.4835000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14">
       <c r="A241" s="1">
         <v>39721</v>
       </c>
@@ -8292,7 +8429,7 @@
         <v>4.492</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14">
       <c r="A242" s="1">
         <v>39752</v>
       </c>
@@ -8324,7 +8461,7 @@
         <v>4.4634999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14">
       <c r="A243" s="1">
         <v>39780</v>
       </c>
@@ -8356,7 +8493,7 @@
         <v>3.1164999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14">
       <c r="A244" s="1">
         <v>39813</v>
       </c>
@@ -8388,7 +8525,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14">
       <c r="A245" s="1">
         <v>39843</v>
       </c>
@@ -8420,7 +8557,7 @@
         <v>3.0830000000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14">
       <c r="A246" s="1">
         <v>39871</v>
       </c>
@@ -8452,7 +8589,7 @@
         <v>3.3290000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14">
       <c r="A247" s="1">
         <v>39903</v>
       </c>
@@ -8484,7 +8621,7 @@
         <v>2.8635000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14">
       <c r="A248" s="1">
         <v>39933</v>
       </c>
@@ -8516,7 +8653,7 @@
         <v>3.2404999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14">
       <c r="A249" s="1">
         <v>39962</v>
       </c>
@@ -8548,7 +8685,7 @@
         <v>3.6550000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14">
       <c r="A250" s="1">
         <v>39994</v>
       </c>
@@ -8580,7 +8717,7 @@
         <v>3.7835000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14">
       <c r="A251" s="1">
         <v>40025</v>
       </c>
@@ -8612,7 +8749,7 @@
         <v>3.7255000000000003</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14">
       <c r="A252" s="1">
         <v>40056</v>
       </c>
@@ -8644,7 +8781,7 @@
         <v>3.6185</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14">
       <c r="A253" s="1">
         <v>40086</v>
       </c>
@@ -8676,7 +8813,7 @@
         <v>3.4609999999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14">
       <c r="A254" s="1">
         <v>40116</v>
       </c>
@@ -8708,7 +8845,7 @@
         <v>3.5643000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14">
       <c r="A255" s="1">
         <v>40147</v>
       </c>
@@ -8740,7 +8877,7 @@
         <v>3.2965</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14">
       <c r="A256" s="1">
         <v>40178</v>
       </c>
@@ -8772,7 +8909,7 @@
         <v>3.9710000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14">
       <c r="A257" s="1">
         <v>40207</v>
       </c>
@@ -8804,7 +8941,7 @@
         <v>3.7090000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14">
       <c r="A258" s="1">
         <v>40235</v>
       </c>
@@ -8836,7 +8973,7 @@
         <v>3.702</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14">
       <c r="A259" s="1">
         <v>40268</v>
       </c>
@@ -8868,7 +9005,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14">
       <c r="A260" s="1">
         <v>40298</v>
       </c>
@@ -8900,7 +9037,7 @@
         <v>3.6589999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14">
       <c r="A261" s="1">
         <v>40329</v>
       </c>
@@ -8932,7 +9069,7 @@
         <v>3.3689999999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14">
       <c r="A262" s="1">
         <v>40359</v>
       </c>
@@ -8964,7 +9101,7 @@
         <v>3.0015000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14">
       <c r="A263" s="1">
         <v>40389</v>
       </c>
@@ -8996,7 +9133,7 @@
         <v>2.8935</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14">
       <c r="A264" s="1">
         <v>40421</v>
       </c>
@@ -9028,7 +9165,7 @@
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14">
       <c r="A265" s="1">
         <v>40451</v>
       </c>
@@ -9060,7 +9197,7 @@
         <v>2.5739999999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14">
       <c r="A266" s="1">
         <v>40480</v>
       </c>
@@ -9092,7 +9229,7 @@
         <v>2.6829999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14">
       <c r="A267" s="1">
         <v>40512</v>
       </c>
@@ -9124,7 +9261,7 @@
         <v>2.9415</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14">
       <c r="A268" s="1">
         <v>40543</v>
       </c>
@@ -9156,7 +9293,7 @@
         <v>3.3769999999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14">
       <c r="A269" s="1">
         <v>40574</v>
       </c>
@@ -9188,7 +9325,7 @@
         <v>3.4735</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14">
       <c r="A270" s="1">
         <v>40602</v>
       </c>
@@ -9220,7 +9357,7 @@
         <v>3.5419999999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14">
       <c r="A271" s="1">
         <v>40633</v>
       </c>
@@ -9252,7 +9389,7 @@
         <v>3.5747999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14">
       <c r="A272" s="1">
         <v>40662</v>
       </c>
@@ -9284,7 +9421,7 @@
         <v>3.3654999999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14">
       <c r="A273" s="1">
         <v>40694</v>
       </c>
@@ -9316,7 +9453,7 @@
         <v>3.161</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14">
       <c r="A274" s="1">
         <v>40724</v>
       </c>
@@ -9348,7 +9485,7 @@
         <v>3.2789999999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14">
       <c r="A275" s="1">
         <v>40753</v>
       </c>
@@ -9380,7 +9517,7 @@
         <v>2.9255</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14">
       <c r="A276" s="1">
         <v>40786</v>
       </c>
@@ -9412,7 +9549,7 @@
         <v>2.4020000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14">
       <c r="A277" s="1">
         <v>40816</v>
       </c>
@@ -9444,7 +9581,7 @@
         <v>2.1074999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14">
       <c r="A278" s="1">
         <v>40847</v>
       </c>
@@ -9476,7 +9613,7 @@
         <v>2.2839999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14">
       <c r="A279" s="1">
         <v>40877</v>
       </c>
@@ -9508,7 +9645,7 @@
         <v>2.2170000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14">
       <c r="A280" s="1">
         <v>40907</v>
       </c>
@@ -9540,7 +9677,7 @@
         <v>2.0270000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14">
       <c r="A281" s="1">
         <v>40939</v>
       </c>
@@ -9572,7 +9709,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14">
       <c r="A282" s="1">
         <v>40968</v>
       </c>
@@ -9604,7 +9741,7 @@
         <v>2.0619999999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14">
       <c r="A283" s="1">
         <v>40998</v>
       </c>
@@ -9636,7 +9773,7 @@
         <v>2.2869999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14">
       <c r="A284" s="1">
         <v>41029</v>
       </c>
@@ -9668,7 +9805,7 @@
         <v>2.0485000000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14">
       <c r="A285" s="1">
         <v>41060</v>
       </c>
@@ -9700,7 +9837,7 @@
         <v>1.7290000000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14">
       <c r="A286" s="1">
         <v>41089</v>
       </c>
@@ -9732,7 +9869,7 @@
         <v>1.7789999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14">
       <c r="A287" s="1">
         <v>41121</v>
       </c>
@@ -9764,7 +9901,7 @@
         <v>1.5885</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14">
       <c r="A288" s="1">
         <v>41152</v>
       </c>
@@ -9796,7 +9933,7 @@
         <v>1.6595</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14">
       <c r="A289" s="1">
         <v>41180</v>
       </c>
@@ -9828,7 +9965,7 @@
         <v>1.7035</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14">
       <c r="A290" s="1">
         <v>41213</v>
       </c>
@@ -9860,7 +9997,7 @@
         <v>1.7375</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14">
       <c r="A291" s="1">
         <v>41243</v>
       </c>
@@ -9892,7 +10029,7 @@
         <v>1.6648000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14">
       <c r="A292" s="1">
         <v>41274</v>
       </c>
@@ -9924,7 +10061,7 @@
         <v>1.8395000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14">
       <c r="A293" s="1">
         <v>41305</v>
       </c>
@@ -9956,7 +10093,7 @@
         <v>2.0630000000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14">
       <c r="A294" s="1">
         <v>41333</v>
       </c>
@@ -9988,7 +10125,7 @@
         <v>1.9668999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14">
       <c r="A295" s="1">
         <v>41362</v>
       </c>
@@ -10020,7 +10157,7 @@
         <v>2.0070000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14">
       <c r="A296" s="1">
         <v>41394</v>
       </c>
@@ -10052,7 +10189,7 @@
         <v>1.8479999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14">
       <c r="A297" s="1">
         <v>41425</v>
       </c>
@@ -10084,7 +10221,7 @@
         <v>2.3041999999999998</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14">
       <c r="A298" s="1">
         <v>41453</v>
       </c>
@@ -10116,7 +10253,7 @@
         <v>2.6970000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14">
       <c r="A299" s="1">
         <v>41486</v>
       </c>
@@ -10148,7 +10285,7 @@
         <v>2.7694999999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14">
       <c r="A300" s="1">
         <v>41516</v>
       </c>
@@ -10180,7 +10317,7 @@
         <v>2.9809999999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14">
       <c r="A301" s="1">
         <v>41547</v>
       </c>
@@ -10212,7 +10349,7 @@
         <v>2.7650000000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14">
       <c r="A302" s="1">
         <v>41578</v>
       </c>
@@ -10244,7 +10381,7 @@
         <v>2.6995</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14">
       <c r="A303" s="1">
         <v>41607</v>
       </c>
@@ -10276,7 +10413,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14">
       <c r="A304" s="1">
         <v>41639</v>
       </c>
@@ -10308,7 +10445,7 @@
         <v>3.0859999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14">
       <c r="A305" s="1">
         <v>41670</v>
       </c>
@@ -10340,7 +10477,7 @@
         <v>2.7854999999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14">
       <c r="A306" s="1">
         <v>41698</v>
       </c>
@@ -10372,7 +10509,7 @@
         <v>2.7610000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14">
       <c r="A307" s="1">
         <v>41729</v>
       </c>
@@ -10404,7 +10541,7 @@
         <v>2.8420000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14">
       <c r="A308" s="1">
         <v>41759</v>
       </c>
@@ -10436,7 +10573,7 @@
         <v>2.754</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14">
       <c r="A309" s="1">
         <v>41789</v>
       </c>
@@ -10468,7 +10605,7 @@
         <v>2.5880000000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14">
       <c r="A310" s="1">
         <v>41820</v>
       </c>
@@ -10500,7 +10637,7 @@
         <v>2.6307999999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14">
       <c r="A311" s="1">
         <v>41851</v>
       </c>
@@ -10532,7 +10669,7 @@
         <v>2.6973000000000003</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14">
       <c r="A312" s="1">
         <v>41880</v>
       </c>
@@ -10564,7 +10701,7 @@
         <v>2.4980000000000002</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14">
       <c r="A313" s="1">
         <v>41912</v>
       </c>
@@ -10596,7 +10733,7 @@
         <v>2.6390000000000002</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14">
       <c r="A314" s="1">
         <v>41943</v>
       </c>
@@ -10634,12 +10771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -10653,7 +10792,7 @@
     <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -10670,7 +10809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10702,7 +10841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>32598</v>
       </c>
@@ -10734,7 +10873,7 @@
         <v>10.154</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>32626</v>
       </c>
@@ -10766,7 +10905,7 @@
         <v>10.010999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>32659</v>
       </c>
@@ -10798,7 +10937,7 @@
         <v>9.5240000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>32689</v>
       </c>
@@ -10830,7 +10969,7 @@
         <v>9.0830000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>32720</v>
       </c>
@@ -10862,7 +11001,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>32751</v>
       </c>
@@ -10894,7 +11033,7 @@
         <v>9.3209999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>32780</v>
       </c>
@@ -10926,7 +11065,7 @@
         <v>9.3239999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>32812</v>
       </c>
@@ -10958,7 +11097,7 @@
         <v>9.0090000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>32842</v>
       </c>
@@ -10990,7 +11129,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>32871</v>
       </c>
@@ -11022,7 +11161,7 @@
         <v>9.1050000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>32904</v>
       </c>
@@ -11054,7 +11193,7 @@
         <v>9.6530000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>32932</v>
       </c>
@@ -11086,7 +11225,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>32962</v>
       </c>
@@ -11118,7 +11257,7 @@
         <v>9.7609999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>32993</v>
       </c>
@@ -11150,7 +11289,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>33024</v>
       </c>
@@ -11182,7 +11321,7 @@
         <v>9.7189999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>33053</v>
       </c>
@@ -11214,7 +11353,7 @@
         <v>9.5269999999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>33085</v>
       </c>
@@ -11246,7 +11385,7 @@
         <v>9.4770000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>33116</v>
       </c>
@@ -11278,7 +11417,7 @@
         <v>9.9320000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>33144</v>
       </c>
@@ -11310,7 +11449,7 @@
         <v>9.8330000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>33177</v>
       </c>
@@ -11342,7 +11481,7 @@
         <v>9.6219999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>33207</v>
       </c>
@@ -11374,7 +11513,7 @@
         <v>9.2569999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>33238</v>
       </c>
@@ -11406,7 +11545,7 @@
         <v>9.0779999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>33269</v>
       </c>
@@ -11438,7 +11577,7 @@
         <v>9.1760000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>33297</v>
       </c>
@@ -11470,7 +11609,7 @@
         <v>9.0030000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>33326</v>
       </c>
@@ -11502,7 +11641,7 @@
         <v>9.0389999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>33358</v>
       </c>
@@ -11534,7 +11673,7 @@
         <v>9.077</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>33389</v>
       </c>
@@ -11566,7 +11705,7 @@
         <v>8.984</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>33417</v>
       </c>
@@ -11598,7 +11737,7 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>33450</v>
       </c>
@@ -11630,7 +11769,7 @@
         <v>9.0350000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>33480</v>
       </c>
@@ -11662,7 +11801,7 @@
         <v>8.6530000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>33511</v>
       </c>
@@ -11694,7 +11833,7 @@
         <v>8.391</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>33542</v>
       </c>
@@ -11726,7 +11865,7 @@
         <v>8.4860000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33571</v>
       </c>
@@ -11758,7 +11897,7 @@
         <v>8.3889999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>33603</v>
       </c>
@@ -11790,7 +11929,7 @@
         <v>7.7560000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>33634</v>
       </c>
@@ -11822,7 +11961,7 @@
         <v>8.3539999999999992</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>33662</v>
       </c>
@@ -11854,7 +11993,7 @@
         <v>8.2479999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>33694</v>
       </c>
@@ -11886,7 +12025,7 @@
         <v>8.4120000000000008</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>33724</v>
       </c>
@@ -11918,7 +12057,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>33753</v>
       </c>
@@ -11950,7 +12089,7 @@
         <v>8.1059999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>33785</v>
       </c>
@@ -11982,7 +12121,7 @@
         <v>7.9180000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>33816</v>
       </c>
@@ -12014,7 +12153,7 @@
         <v>7.4530000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>33847</v>
       </c>
@@ -12046,7 +12185,7 @@
         <v>7.4610000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>33877</v>
       </c>
@@ -12078,7 +12217,7 @@
         <v>7.1589999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>33907</v>
       </c>
@@ -12110,7 +12249,7 @@
         <v>7.4859999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>33938</v>
       </c>
@@ -12142,7 +12281,7 @@
         <v>7.6890000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>33969</v>
       </c>
@@ -12174,7 +12313,7 @@
         <v>7.407</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>33998</v>
       </c>
@@ -12206,7 +12345,7 @@
         <v>7.1050000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>34026</v>
       </c>
@@ -12238,7 +12377,7 @@
         <v>6.7069999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>34059</v>
       </c>
@@ -12270,7 +12409,7 @@
         <v>6.7219999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>34089</v>
       </c>
@@ -12302,7 +12441,7 @@
         <v>6.6619999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>34120</v>
       </c>
@@ -12334,7 +12473,7 @@
         <v>6.8550000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>34150</v>
       </c>
@@ -12366,7 +12505,7 @@
         <v>6.4429999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>34180</v>
       </c>
@@ -12398,7 +12537,7 @@
         <v>6.4429999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>34212</v>
       </c>
@@ -12430,7 +12569,7 @@
         <v>5.992</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>34242</v>
       </c>
@@ -12462,7 +12601,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>34271</v>
       </c>
@@ -12494,7 +12633,7 @@
         <v>6.0609999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>34303</v>
       </c>
@@ -12526,7 +12665,7 @@
         <v>6.4829999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>34334</v>
       </c>
@@ -12558,7 +12697,7 @@
         <v>6.4089999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>34365</v>
       </c>
@@ -12590,7 +12729,7 @@
         <v>6.2080000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>34393</v>
       </c>
@@ -12622,7 +12761,7 @@
         <v>6.7830000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>34424</v>
       </c>
@@ -12654,7 +12793,7 @@
         <v>7.5280000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>34453</v>
       </c>
@@ -12686,7 +12825,7 @@
         <v>7.7880000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>34485</v>
       </c>
@@ -12718,7 +12857,7 @@
         <v>7.8239999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="1">
         <v>34515</v>
       </c>
@@ -12750,7 +12889,7 @@
         <v>8.0129999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="1">
         <v>34544</v>
       </c>
@@ -12782,7 +12921,7 @@
         <v>7.7649999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" s="1">
         <v>34577</v>
       </c>
@@ -12814,7 +12953,7 @@
         <v>7.8179999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" s="1">
         <v>34607</v>
       </c>
@@ -12846,7 +12985,7 @@
         <v>8.2929999999999993</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" s="1">
         <v>34638</v>
       </c>
@@ -12878,7 +13017,7 @@
         <v>8.4809999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" s="1">
         <v>34668</v>
       </c>
@@ -12910,7 +13049,7 @@
         <v>8.5129999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" s="1">
         <v>34698</v>
       </c>
@@ -12942,7 +13081,7 @@
         <v>8.3849999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" s="1">
         <v>34730</v>
       </c>
@@ -12974,7 +13113,7 @@
         <v>8.2040000000000006</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" s="1">
         <v>34758</v>
       </c>
@@ -13006,7 +13145,7 @@
         <v>7.7789999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" s="1">
         <v>34789</v>
       </c>
@@ -13038,7 +13177,7 @@
         <v>7.8029999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" s="1">
         <v>34817</v>
       </c>
@@ -13070,7 +13209,7 @@
         <v>7.6879999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" s="1">
         <v>34850</v>
       </c>
@@ -13102,7 +13241,7 @@
         <v>6.883</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" s="1">
         <v>34880</v>
       </c>
@@ -13134,7 +13273,7 @@
         <v>6.798</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" s="1">
         <v>34911</v>
       </c>
@@ -13166,7 +13305,7 @@
         <v>7.0279999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" s="1">
         <v>34942</v>
       </c>
@@ -13198,7 +13337,7 @@
         <v>6.8650000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" s="1">
         <v>34971</v>
       </c>
@@ -13230,7 +13369,7 @@
         <v>6.7489999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" s="1">
         <v>35003</v>
       </c>
@@ -13262,7 +13401,7 @@
         <v>6.5649999999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" s="1">
         <v>35033</v>
       </c>
@@ -13294,7 +13433,7 @@
         <v>6.3250000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" s="1">
         <v>35062</v>
       </c>
@@ -13326,7 +13465,7 @@
         <v>6.1189999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" s="1">
         <v>35095</v>
       </c>
@@ -13358,7 +13497,7 @@
         <v>6.1539999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" s="1">
         <v>35124</v>
       </c>
@@ -13390,7 +13529,7 @@
         <v>6.766</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" s="1">
         <v>35153</v>
       </c>
@@ -13422,7 +13561,7 @@
         <v>6.9740000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" s="1">
         <v>35185</v>
       </c>
@@ -13454,7 +13593,7 @@
         <v>7.2910000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" s="1">
         <v>35216</v>
       </c>
@@ -13486,7 +13625,7 @@
         <v>7.4340000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" s="1">
         <v>35244</v>
       </c>
@@ -13518,7 +13657,7 @@
         <v>7.4359999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" s="1">
         <v>35277</v>
       </c>
@@ -13550,7 +13689,7 @@
         <v>7.4580000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" s="1">
         <v>35307</v>
       </c>
@@ -13582,7 +13721,7 @@
         <v>7.4320000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" s="1">
         <v>35338</v>
       </c>
@@ -13614,7 +13753,7 @@
         <v>7.2290000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" s="1">
         <v>35369</v>
       </c>
@@ -13646,7 +13785,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" s="1">
         <v>35398</v>
       </c>
@@ -13678,7 +13817,7 @@
         <v>6.5979999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" s="1">
         <v>35430</v>
       </c>
@@ -13710,7 +13849,7 @@
         <v>6.819</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>35461</v>
       </c>
@@ -13742,7 +13881,7 @@
         <v>7.1239999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>35489</v>
       </c>
@@ -13774,7 +13913,7 @@
         <v>7.1260000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>35520</v>
       </c>
@@ -13806,7 +13945,7 @@
         <v>7.4669999999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>35550</v>
       </c>
@@ -13838,7 +13977,7 @@
         <v>7.351</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>35580</v>
       </c>
@@ -13870,7 +14009,7 @@
         <v>7.3040000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" s="1">
         <v>35611</v>
       </c>
@@ -13902,7 +14041,7 @@
         <v>7.0250000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" s="1">
         <v>35642</v>
       </c>
@@ -13934,7 +14073,7 @@
         <v>6.6319999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" s="1">
         <v>35671</v>
       </c>
@@ -13966,7 +14105,7 @@
         <v>6.8879999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" s="1">
         <v>35703</v>
       </c>
@@ -13998,7 +14137,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>35734</v>
       </c>
@@ -14030,7 +14169,7 @@
         <v>6.5640000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107" s="1">
         <v>35762</v>
       </c>
@@ -14062,7 +14201,7 @@
         <v>6.4489999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108" s="1">
         <v>35795</v>
       </c>
@@ -14094,7 +14233,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109" s="1">
         <v>35825</v>
       </c>
@@ -14126,7 +14265,7 @@
         <v>6.1920000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110" s="1">
         <v>35853</v>
       </c>
@@ -14158,7 +14297,7 @@
         <v>6.2620000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" s="1">
         <v>35885</v>
       </c>
@@ -14190,7 +14329,7 @@
         <v>6.3529999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112" s="1">
         <v>35915</v>
       </c>
@@ -14222,7 +14361,7 @@
         <v>6.4470000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113" s="1">
         <v>35944</v>
       </c>
@@ -14254,7 +14393,7 @@
         <v>6.2149999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114" s="1">
         <v>35976</v>
       </c>
@@ -14286,7 +14425,7 @@
         <v>6.1470000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="A115" s="1">
         <v>36007</v>
       </c>
@@ -14318,7 +14457,7 @@
         <v>6.165</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116" s="1">
         <v>36038</v>
       </c>
@@ -14350,7 +14489,7 @@
         <v>6.0869999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117" s="1">
         <v>36068</v>
       </c>
@@ -14382,7 +14521,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" s="1">
         <v>36098</v>
       </c>
@@ -14414,7 +14553,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="A119" s="1">
         <v>36129</v>
       </c>
@@ -14446,7 +14585,7 @@
         <v>5.7110000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120" s="1">
         <v>36160</v>
       </c>
@@ -14478,7 +14617,7 @@
         <v>5.5880000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121" s="1">
         <v>36189</v>
       </c>
@@ -14510,7 +14649,7 @@
         <v>5.577</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="A122" s="1">
         <v>36217</v>
       </c>
@@ -14542,7 +14681,7 @@
         <v>6.2030000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14">
       <c r="A123" s="1">
         <v>36250</v>
       </c>
@@ -14574,7 +14713,7 @@
         <v>6.1660000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14">
       <c r="A124" s="1">
         <v>36280</v>
       </c>
@@ -14606,7 +14745,7 @@
         <v>6.0519999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14">
       <c r="A125" s="1">
         <v>36311</v>
       </c>
@@ -14638,7 +14777,7 @@
         <v>6.5739999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14">
       <c r="A126" s="1">
         <v>36341</v>
       </c>
@@ -14670,7 +14809,7 @@
         <v>6.9809999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14">
       <c r="A127" s="1">
         <v>36371</v>
       </c>
@@ -14702,7 +14841,7 @@
         <v>7.109</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14">
       <c r="A128" s="1">
         <v>36403</v>
       </c>
@@ -14734,7 +14873,7 @@
         <v>7.1909999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14">
       <c r="A129" s="1">
         <v>36433</v>
       </c>
@@ -14766,7 +14905,7 @@
         <v>7.0960000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130" s="1">
         <v>36462</v>
       </c>
@@ -14798,7 +14937,7 @@
         <v>7.1459999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14">
       <c r="A131" s="1">
         <v>36494</v>
       </c>
@@ -14830,7 +14969,7 @@
         <v>7.1580000000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14">
       <c r="A132" s="1">
         <v>36525</v>
       </c>
@@ -14862,7 +15001,7 @@
         <v>7.3460000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" s="1">
         <v>36556</v>
       </c>
@@ -14894,7 +15033,7 @@
         <v>7.6589999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14">
       <c r="A134" s="1">
         <v>36585</v>
       </c>
@@ -14926,7 +15065,7 @@
         <v>7.6340000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14">
       <c r="A135" s="1">
         <v>36616</v>
       </c>
@@ -14958,7 +15097,7 @@
         <v>7.4850000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136" s="1">
         <v>36644</v>
       </c>
@@ -14990,7 +15129,7 @@
         <v>7.5880000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14">
       <c r="A137" s="1">
         <v>36677</v>
       </c>
@@ -15022,7 +15161,7 @@
         <v>7.8540000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14">
       <c r="A138" s="1">
         <v>36707</v>
       </c>
@@ -15054,7 +15193,7 @@
         <v>7.4080000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14">
       <c r="A139" s="1">
         <v>36738</v>
       </c>
@@ -15086,7 +15225,7 @@
         <v>7.4320000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14">
       <c r="A140" s="1">
         <v>36769</v>
       </c>
@@ -15118,7 +15257,7 @@
         <v>7.2290000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14">
       <c r="A141" s="1">
         <v>36798</v>
       </c>
@@ -15150,7 +15289,7 @@
         <v>7.0640000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14">
       <c r="A142" s="1">
         <v>36830</v>
       </c>
@@ -15182,7 +15321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14">
       <c r="A143" s="1">
         <v>36860</v>
       </c>
@@ -15214,7 +15353,7 @@
         <v>6.8360000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14">
       <c r="A144" s="1">
         <v>36889</v>
       </c>
@@ -15246,7 +15385,7 @@
         <v>6.2750000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14">
       <c r="A145" s="1">
         <v>36922</v>
       </c>
@@ -15278,7 +15417,7 @@
         <v>6.1719999999999997</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14">
       <c r="A146" s="1">
         <v>36950</v>
       </c>
@@ -15310,7 +15449,7 @@
         <v>6.0350000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147" s="1">
         <v>36980</v>
       </c>
@@ -15342,7 +15481,7 @@
         <v>6.1340000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14">
       <c r="A148" s="1">
         <v>37011</v>
       </c>
@@ -15374,7 +15513,7 @@
         <v>6.4030000000000005</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14">
       <c r="A149" s="1">
         <v>37042</v>
       </c>
@@ -15406,7 +15545,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14">
       <c r="A150" s="1">
         <v>37071</v>
       </c>
@@ -15438,7 +15577,7 @@
         <v>6.4610000000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14">
       <c r="A151" s="1">
         <v>37103</v>
       </c>
@@ -15470,7 +15609,7 @@
         <v>6.1029999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14">
       <c r="A152" s="1">
         <v>37134</v>
       </c>
@@ -15502,7 +15641,7 @@
         <v>5.7990000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14">
       <c r="A153" s="1">
         <v>37162</v>
       </c>
@@ -15534,7 +15673,7 @@
         <v>5.4489999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14">
       <c r="A154" s="1">
         <v>37195</v>
       </c>
@@ -15566,7 +15705,7 @@
         <v>5.3280000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14">
       <c r="A155" s="1">
         <v>37225</v>
       </c>
@@ -15598,7 +15737,7 @@
         <v>5.758</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14">
       <c r="A156" s="1">
         <v>37256</v>
       </c>
@@ -15630,7 +15769,7 @@
         <v>6.1779999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14">
       <c r="A157" s="1">
         <v>37287</v>
       </c>
@@ -15662,7 +15801,7 @@
         <v>5.9930000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14">
       <c r="A158" s="1">
         <v>37315</v>
       </c>
@@ -15694,7 +15833,7 @@
         <v>5.7610000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14">
       <c r="A159" s="1">
         <v>37344</v>
       </c>
@@ -15726,7 +15865,7 @@
         <v>6.3469999999999995</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14">
       <c r="A160" s="1">
         <v>37376</v>
       </c>
@@ -15758,7 +15897,7 @@
         <v>5.931</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14">
       <c r="A161" s="1">
         <v>37407</v>
       </c>
@@ -15790,7 +15929,7 @@
         <v>5.7809999999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14">
       <c r="A162" s="1">
         <v>37435</v>
       </c>
@@ -15822,7 +15961,7 @@
         <v>5.5919999999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14">
       <c r="A163" s="1">
         <v>37468</v>
       </c>
@@ -15854,7 +15993,7 @@
         <v>5.4889999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14">
       <c r="A164" s="1">
         <v>37498</v>
       </c>
@@ -15886,7 +16025,7 @@
         <v>4.8520000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14">
       <c r="A165" s="1">
         <v>37529</v>
       </c>
@@ -15918,7 +16057,7 @@
         <v>4.5069999999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14">
       <c r="A166" s="1">
         <v>37560</v>
       </c>
@@ -15950,7 +16089,7 @@
         <v>4.7780000000000005</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14">
       <c r="A167" s="1">
         <v>37589</v>
       </c>
@@ -15982,7 +16121,7 @@
         <v>4.9420000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14">
       <c r="A168" s="1">
         <v>37621</v>
       </c>
@@ -16014,7 +16153,7 @@
         <v>4.4610000000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14">
       <c r="A169" s="1">
         <v>37652</v>
       </c>
@@ -16046,7 +16185,7 @@
         <v>4.657</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14">
       <c r="A170" s="1">
         <v>37680</v>
       </c>
@@ -16078,7 +16217,7 @@
         <v>4.3929999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14">
       <c r="A171" s="1">
         <v>37711</v>
       </c>
@@ -16110,7 +16249,7 @@
         <v>4.5229999999999997</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14">
       <c r="A172" s="1">
         <v>37741</v>
       </c>
@@ -16142,7 +16281,7 @@
         <v>4.5229999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14">
       <c r="A173" s="1">
         <v>37771</v>
       </c>
@@ -16174,7 +16313,7 @@
         <v>3.8679999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14">
       <c r="A174" s="1">
         <v>37802</v>
       </c>
@@ -16206,7 +16345,7 @@
         <v>4.0590000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14">
       <c r="A175" s="1">
         <v>37833</v>
       </c>
@@ -16238,7 +16377,7 @@
         <v>5.0060000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14">
       <c r="A176" s="1">
         <v>37862</v>
       </c>
@@ -16270,7 +16409,7 @@
         <v>5.2169999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14">
       <c r="A177" s="1">
         <v>37894</v>
       </c>
@@ -16302,7 +16441,7 @@
         <v>4.7309999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14">
       <c r="A178" s="1">
         <v>37925</v>
       </c>
@@ -16334,7 +16473,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14">
       <c r="A179" s="1">
         <v>37953</v>
       </c>
@@ -16366,7 +16505,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14">
       <c r="A180" s="1">
         <v>37986</v>
       </c>
@@ -16398,7 +16537,7 @@
         <v>4.9020000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14">
       <c r="A181" s="1">
         <v>38016</v>
       </c>
@@ -16430,7 +16569,7 @@
         <v>4.8289999999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14">
       <c r="A182" s="1">
         <v>38044</v>
       </c>
@@ -16462,7 +16601,7 @@
         <v>4.649</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14">
       <c r="A183" s="1">
         <v>38077</v>
       </c>
@@ -16494,7 +16633,7 @@
         <v>4.4829999999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14">
       <c r="A184" s="1">
         <v>38107</v>
       </c>
@@ -16526,7 +16665,7 @@
         <v>5.2569999999999997</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14">
       <c r="A185" s="1">
         <v>38138</v>
       </c>
@@ -16558,7 +16697,7 @@
         <v>5.3890000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14">
       <c r="A186" s="1">
         <v>38168</v>
       </c>
@@ -16590,7 +16729,7 @@
         <v>5.4089999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14">
       <c r="A187" s="1">
         <v>38198</v>
       </c>
@@ -16622,7 +16761,7 @@
         <v>5.2949999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14">
       <c r="A188" s="1">
         <v>38230</v>
       </c>
@@ -16654,7 +16793,7 @@
         <v>4.8540000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14">
       <c r="A189" s="1">
         <v>38260</v>
       </c>
@@ -16686,7 +16825,7 @@
         <v>4.6970000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14">
       <c r="A190" s="1">
         <v>38289</v>
       </c>
@@ -16718,7 +16857,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14">
       <c r="A191" s="1">
         <v>38321</v>
       </c>
@@ -16750,7 +16889,7 @@
         <v>4.9039999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14">
       <c r="A192" s="1">
         <v>38352</v>
       </c>
@@ -16782,7 +16921,7 @@
         <v>4.843</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>38383</v>
       </c>
@@ -16814,7 +16953,7 @@
         <v>4.6660000000000004</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14">
       <c r="A194" s="1">
         <v>38411</v>
       </c>
@@ -16846,7 +16985,7 @@
         <v>4.774</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14">
       <c r="A195" s="1">
         <v>38442</v>
       </c>
@@ -16878,7 +17017,7 @@
         <v>5.1260000000000003</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14">
       <c r="A196" s="1">
         <v>38471</v>
       </c>
@@ -16910,7 +17049,7 @@
         <v>4.7439999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14">
       <c r="A197" s="1">
         <v>38503</v>
       </c>
@@ -16942,7 +17081,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14">
       <c r="A198" s="1">
         <v>38533</v>
       </c>
@@ -16974,7 +17113,7 @@
         <v>4.492</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14">
       <c r="A199" s="1">
         <v>38562</v>
       </c>
@@ -17006,7 +17145,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14">
       <c r="A200" s="1">
         <v>38595</v>
       </c>
@@ -17038,7 +17177,7 @@
         <v>4.6219999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14">
       <c r="A201" s="1">
         <v>38625</v>
       </c>
@@ -17070,7 +17209,7 @@
         <v>4.8159999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14">
       <c r="A202" s="1">
         <v>38656</v>
       </c>
@@ -17102,7 +17241,7 @@
         <v>5.1669999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14">
       <c r="A203" s="1">
         <v>38686</v>
       </c>
@@ -17134,7 +17273,7 @@
         <v>5.1040000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14">
       <c r="A204" s="1">
         <v>38716</v>
       </c>
@@ -17166,7 +17305,7 @@
         <v>4.9850000000000003</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14">
       <c r="A205" s="1">
         <v>38748</v>
       </c>
@@ -17198,7 +17337,7 @@
         <v>5.1319999999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14">
       <c r="A206" s="1">
         <v>38776</v>
       </c>
@@ -17230,7 +17369,7 @@
         <v>5.165</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14">
       <c r="A207" s="1">
         <v>38807</v>
       </c>
@@ -17262,7 +17401,7 @@
         <v>5.4779999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14">
       <c r="A208" s="1">
         <v>38835</v>
       </c>
@@ -17294,7 +17433,7 @@
         <v>5.7210000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14">
       <c r="A209" s="1">
         <v>38868</v>
       </c>
@@ -17326,7 +17465,7 @@
         <v>5.7359999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14">
       <c r="A210" s="1">
         <v>38898</v>
       </c>
@@ -17358,7 +17497,7 @@
         <v>5.8970000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14">
       <c r="A211" s="1">
         <v>38929</v>
       </c>
@@ -17390,7 +17529,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14">
       <c r="A212" s="1">
         <v>38960</v>
       </c>
@@ -17422,7 +17561,7 @@
         <v>5.4009999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14">
       <c r="A213" s="1">
         <v>38989</v>
       </c>
@@ -17454,7 +17593,7 @@
         <v>5.2160000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14">
       <c r="A214" s="1">
         <v>39021</v>
       </c>
@@ -17486,7 +17625,7 @@
         <v>5.2910000000000004</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14">
       <c r="A215" s="1">
         <v>39051</v>
       </c>
@@ -17518,7 +17657,7 @@
         <v>5.0570000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14">
       <c r="A216" s="1">
         <v>39080</v>
       </c>
@@ -17550,7 +17689,7 @@
         <v>5.2359999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14">
       <c r="A217" s="1">
         <v>39113</v>
       </c>
@@ -17582,7 +17721,7 @@
         <v>5.4790000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14">
       <c r="A218" s="1">
         <v>39141</v>
       </c>
@@ -17614,7 +17753,7 @@
         <v>5.1760000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14">
       <c r="A219" s="1">
         <v>39171</v>
       </c>
@@ -17646,7 +17785,7 @@
         <v>5.2690000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14">
       <c r="A220" s="1">
         <v>39202</v>
       </c>
@@ -17678,7 +17817,7 @@
         <v>5.3150000000000004</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14">
       <c r="A221" s="1">
         <v>39233</v>
       </c>
@@ -17710,7 +17849,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14">
       <c r="A222" s="1">
         <v>39262</v>
       </c>
@@ -17742,7 +17881,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14">
       <c r="A223" s="1">
         <v>39294</v>
       </c>
@@ -17774,7 +17913,7 @@
         <v>5.702</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14">
       <c r="A224" s="1">
         <v>39325</v>
       </c>
@@ -17806,7 +17945,7 @@
         <v>5.3730000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14">
       <c r="A225" s="1">
         <v>39353</v>
       </c>
@@ -17838,7 +17977,7 @@
         <v>5.3109999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14">
       <c r="A226" s="1">
         <v>39386</v>
       </c>
@@ -17870,7 +18009,7 @@
         <v>5.1559999999999997</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14">
       <c r="A227" s="1">
         <v>39416</v>
       </c>
@@ -17902,7 +18041,7 @@
         <v>4.7039999999999997</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14">
       <c r="A228" s="1">
         <v>39447</v>
       </c>
@@ -17934,7 +18073,7 @@
         <v>4.8460000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14">
       <c r="A229" s="1">
         <v>39478</v>
       </c>
@@ -17966,7 +18105,7 @@
         <v>4.4320000000000004</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14">
       <c r="A230" s="1">
         <v>39507</v>
       </c>
@@ -17998,7 +18137,7 @@
         <v>4.5229999999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14">
       <c r="A231" s="1">
         <v>39538</v>
       </c>
@@ -18030,7 +18169,7 @@
         <v>4.2789999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14">
       <c r="A232" s="1">
         <v>39568</v>
       </c>
@@ -18062,7 +18201,7 @@
         <v>4.5670000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14">
       <c r="A233" s="1">
         <v>39598</v>
       </c>
@@ -18094,7 +18233,7 @@
         <v>4.8309999999999995</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14">
       <c r="A234" s="1">
         <v>39629</v>
       </c>
@@ -18126,7 +18265,7 @@
         <v>4.8390000000000004</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14">
       <c r="A235" s="1">
         <v>39660</v>
       </c>
@@ -18158,7 +18297,7 @@
         <v>4.8609999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14">
       <c r="A236" s="1">
         <v>39689</v>
       </c>
@@ -18190,7 +18329,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14">
       <c r="A237" s="1">
         <v>39721</v>
       </c>
@@ -18222,7 +18361,7 @@
         <v>4.4550000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14">
       <c r="A238" s="1">
         <v>39752</v>
       </c>
@@ -18254,7 +18393,7 @@
         <v>4.5049999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14">
       <c r="A239" s="1">
         <v>39780</v>
       </c>
@@ -18286,7 +18425,7 @@
         <v>3.1749999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14">
       <c r="A240" s="1">
         <v>39813</v>
       </c>
@@ -18318,7 +18457,7 @@
         <v>2.516</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14">
       <c r="A241" s="1">
         <v>39843</v>
       </c>
@@ -18350,7 +18489,7 @@
         <v>3.1320000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14">
       <c r="A242" s="1">
         <v>39871</v>
       </c>
@@ -18382,7 +18521,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14">
       <c r="A243" s="1">
         <v>39903</v>
       </c>
@@ -18414,7 +18553,7 @@
         <v>3.0179999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14">
       <c r="A244" s="1">
         <v>39933</v>
       </c>
@@ -18446,7 +18585,7 @@
         <v>3.343</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14">
       <c r="A245" s="1">
         <v>39962</v>
       </c>
@@ -18478,7 +18617,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14">
       <c r="A246" s="1">
         <v>39994</v>
       </c>
@@ -18510,7 +18649,7 @@
         <v>3.8679999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14">
       <c r="A247" s="1">
         <v>40025</v>
       </c>
@@ -18542,7 +18681,7 @@
         <v>4.0380000000000003</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14">
       <c r="A248" s="1">
         <v>40056</v>
       </c>
@@ -18574,7 +18713,7 @@
         <v>3.8069999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14">
       <c r="A249" s="1">
         <v>40086</v>
       </c>
@@ -18606,7 +18745,7 @@
         <v>3.6059999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14">
       <c r="A250" s="1">
         <v>40116</v>
       </c>
@@ -18638,7 +18777,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14">
       <c r="A251" s="1">
         <v>40147</v>
       </c>
@@ -18670,7 +18809,7 @@
         <v>3.4750000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14">
       <c r="A252" s="1">
         <v>40178</v>
       </c>
@@ -18702,7 +18841,7 @@
         <v>4.1449999999999996</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14">
       <c r="A253" s="1">
         <v>40207</v>
       </c>
@@ -18734,7 +18873,7 @@
         <v>3.9670000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14">
       <c r="A254" s="1">
         <v>40235</v>
       </c>
@@ -18766,7 +18905,7 @@
         <v>3.9260000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14">
       <c r="A255" s="1">
         <v>40268</v>
       </c>
@@ -18798,7 +18937,7 @@
         <v>4.0270000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14">
       <c r="A256" s="1">
         <v>40298</v>
       </c>
@@ -18830,7 +18969,7 @@
         <v>3.9039999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14">
       <c r="A257" s="1">
         <v>40329</v>
       </c>
@@ -18862,7 +19001,7 @@
         <v>3.0270000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14">
       <c r="A258" s="1">
         <v>40359</v>
       </c>
@@ -18894,7 +19033,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14">
       <c r="A259" s="1">
         <v>40389</v>
       </c>
@@ -18926,7 +19065,7 @@
         <v>3.069</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14">
       <c r="A260" s="1">
         <v>40421</v>
       </c>
@@ -18958,7 +19097,7 @@
         <v>2.609</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14">
       <c r="A261" s="1">
         <v>40451</v>
       </c>
@@ -18990,7 +19129,7 @@
         <v>2.617</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14">
       <c r="A262" s="1">
         <v>40480</v>
       </c>
@@ -19022,7 +19161,7 @@
         <v>2.8879999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14">
       <c r="A263" s="1">
         <v>40512</v>
       </c>
@@ -19054,7 +19193,7 @@
         <v>3.0910000000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14">
       <c r="A264" s="1">
         <v>40543</v>
       </c>
@@ -19086,7 +19225,7 @@
         <v>3.6189999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14">
       <c r="A265" s="1">
         <v>40574</v>
       </c>
@@ -19118,7 +19257,7 @@
         <v>3.6349999999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14">
       <c r="A266" s="1">
         <v>40602</v>
       </c>
@@ -19150,7 +19289,7 @@
         <v>3.7199999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14">
       <c r="A267" s="1">
         <v>40633</v>
       </c>
@@ -19182,7 +19321,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14">
       <c r="A268" s="1">
         <v>40662</v>
       </c>
@@ -19214,7 +19353,7 @@
         <v>3.5819999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14">
       <c r="A269" s="1">
         <v>40694</v>
       </c>
@@ -19246,7 +19385,7 @@
         <v>3.3679999999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14">
       <c r="A270" s="1">
         <v>40724</v>
       </c>
@@ -19278,7 +19417,7 @@
         <v>3.383</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14">
       <c r="A271" s="1">
         <v>40753</v>
       </c>
@@ -19310,7 +19449,7 @@
         <v>3.1829999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14">
       <c r="A272" s="1">
         <v>40786</v>
       </c>
@@ -19342,7 +19481,7 @@
         <v>2.452</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14">
       <c r="A273" s="1">
         <v>40816</v>
       </c>
@@ -19374,7 +19513,7 @@
         <v>2.2069999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14">
       <c r="A274" s="1">
         <v>40847</v>
       </c>
@@ -19406,7 +19545,7 @@
         <v>2.5169999999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14">
       <c r="A275" s="1">
         <v>40877</v>
       </c>
@@ -19438,7 +19577,7 @@
         <v>2.2389999999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14">
       <c r="A276" s="1">
         <v>40907</v>
       </c>
@@ -19470,7 +19609,7 @@
         <v>2.129</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14">
       <c r="A277" s="1">
         <v>40939</v>
       </c>
@@ -19502,7 +19641,7 @@
         <v>2.0630000000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14">
       <c r="A278" s="1">
         <v>40968</v>
       </c>
@@ -19534,7 +19673,7 @@
         <v>2.1189999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14">
       <c r="A279" s="1">
         <v>40998</v>
       </c>
@@ -19566,7 +19705,7 @@
         <v>2.3180000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14">
       <c r="A280" s="1">
         <v>41029</v>
       </c>
@@ -19598,7 +19737,7 @@
         <v>2.133</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14">
       <c r="A281" s="1">
         <v>41060</v>
       </c>
@@ -19630,7 +19769,7 @@
         <v>1.8599999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14">
       <c r="A282" s="1">
         <v>41089</v>
       </c>
@@ -19662,7 +19801,7 @@
         <v>1.827</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14">
       <c r="A283" s="1">
         <v>41121</v>
       </c>
@@ -19694,7 +19833,7 @@
         <v>1.665</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14">
       <c r="A284" s="1">
         <v>41152</v>
       </c>
@@ -19726,7 +19865,7 @@
         <v>1.8199999999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14">
       <c r="A285" s="1">
         <v>41180</v>
       </c>
@@ -19758,7 +19897,7 @@
         <v>1.728</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14">
       <c r="A286" s="1">
         <v>41213</v>
       </c>
@@ -19790,7 +19929,7 @@
         <v>1.8559999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14">
       <c r="A287" s="1">
         <v>41243</v>
       </c>
@@ -19822,7 +19961,7 @@
         <v>1.7189999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14">
       <c r="A288" s="1">
         <v>41274</v>
       </c>
@@ -19854,7 +19993,7 @@
         <v>1.835</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14">
       <c r="A289" s="1">
         <v>41305</v>
       </c>
@@ -19886,7 +20025,7 @@
         <v>2.1349999999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14">
       <c r="A290" s="1">
         <v>41333</v>
       </c>
@@ -19918,7 +20057,7 @@
         <v>2.0489999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14">
       <c r="A291" s="1">
         <v>41362</v>
       </c>
@@ -19950,7 +20089,7 @@
         <v>2.0529999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14">
       <c r="A292" s="1">
         <v>41394</v>
       </c>
@@ -19982,7 +20121,7 @@
         <v>1.893</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14">
       <c r="A293" s="1">
         <v>41425</v>
       </c>
@@ -20014,7 +20153,7 @@
         <v>2.3460000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14">
       <c r="A294" s="1">
         <v>41453</v>
       </c>
@@ -20046,7 +20185,7 @@
         <v>2.7730000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14">
       <c r="A295" s="1">
         <v>41486</v>
       </c>
@@ -20078,7 +20217,7 @@
         <v>2.9459999999999997</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14">
       <c r="A296" s="1">
         <v>41516</v>
       </c>
@@ -20110,7 +20249,7 @@
         <v>3.1189999999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14">
       <c r="A297" s="1">
         <v>41547</v>
       </c>
@@ -20142,7 +20281,7 @@
         <v>2.903</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14">
       <c r="A298" s="1">
         <v>41578</v>
       </c>
@@ -20174,7 +20313,7 @@
         <v>2.7919999999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14">
       <c r="A299" s="1">
         <v>41607</v>
       </c>
@@ -20206,7 +20345,7 @@
         <v>3.0009999999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14">
       <c r="A300" s="1">
         <v>41639</v>
       </c>
@@ -20238,7 +20377,7 @@
         <v>3.2240000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14">
       <c r="A301" s="1">
         <v>41670</v>
       </c>
@@ -20270,7 +20409,7 @@
         <v>2.9449999999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14">
       <c r="A302" s="1">
         <v>41698</v>
       </c>
@@ -20302,7 +20441,7 @@
         <v>2.911</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14">
       <c r="A303" s="1">
         <v>41729</v>
       </c>
@@ -20334,7 +20473,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14">
       <c r="A304" s="1">
         <v>41759</v>
       </c>
@@ -20366,7 +20505,7 @@
         <v>2.9390000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14">
       <c r="A305" s="1">
         <v>41789</v>
       </c>
@@ -20398,7 +20537,7 @@
         <v>2.681</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14">
       <c r="A306" s="1">
         <v>41820</v>
       </c>
@@ -20430,7 +20569,7 @@
         <v>2.7389999999999999</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14">
       <c r="A307" s="1">
         <v>41851</v>
       </c>
@@ -20462,7 +20601,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14">
       <c r="A308" s="1">
         <v>41880</v>
       </c>
@@ -20494,7 +20633,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14">
       <c r="A309" s="1">
         <v>41912</v>
       </c>
@@ -20526,7 +20665,7 @@
         <v>2.758</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14">
       <c r="A310" s="1">
         <v>41943</v>
       </c>
@@ -20558,28 +20697,28 @@
         <v>2.556</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14">
       <c r="A311" s="1"/>
       <c r="D311" s="1"/>
       <c r="G311" s="1"/>
       <c r="J311" s="1"/>
       <c r="M311" s="1"/>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14">
       <c r="A312" s="1"/>
       <c r="D312" s="1"/>
       <c r="G312" s="1"/>
       <c r="J312" s="1"/>
       <c r="M312" s="1"/>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14">
       <c r="A313" s="1"/>
       <c r="D313" s="1"/>
       <c r="G313" s="1"/>
       <c r="J313" s="1"/>
       <c r="M313" s="1"/>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14">
       <c r="A314" s="1"/>
       <c r="D314" s="1"/>
       <c r="G314" s="1"/>
@@ -20592,12 +20731,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20605,14 +20744,2721 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B345"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4">
+        <v>32448</v>
+      </c>
+      <c r="B34" s="3">
+        <v>13.1875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4">
+        <v>32478</v>
+      </c>
+      <c r="B35" s="3">
+        <v>13.1875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4">
+        <v>32509</v>
+      </c>
+      <c r="B36" s="3">
+        <v>13.0625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4">
+        <v>32540</v>
+      </c>
+      <c r="B37" s="3">
+        <v>13.4375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4">
+        <v>32568</v>
+      </c>
+      <c r="B38" s="3">
+        <v>13.0625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4">
+        <v>32599</v>
+      </c>
+      <c r="B39" s="3">
+        <v>13.01563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4">
+        <v>32629</v>
+      </c>
+      <c r="B40" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4">
+        <v>32660</v>
+      </c>
+      <c r="B41" s="3">
+        <v>14.21875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4">
+        <v>32690</v>
+      </c>
+      <c r="B42" s="3">
+        <v>13.875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4">
+        <v>32721</v>
+      </c>
+      <c r="B43" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4">
+        <v>32752</v>
+      </c>
+      <c r="B44" s="3">
+        <v>14.875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4">
+        <v>32782</v>
+      </c>
+      <c r="B45" s="3">
+        <v>15.375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4">
+        <v>32813</v>
+      </c>
+      <c r="B46" s="3">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4">
+        <v>32843</v>
+      </c>
+      <c r="B47" s="3">
+        <v>15.1875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4">
+        <v>32874</v>
+      </c>
+      <c r="B48" s="3">
+        <v>15.125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4">
+        <v>32905</v>
+      </c>
+      <c r="B49" s="3">
+        <v>15.1875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4">
+        <v>32933</v>
+      </c>
+      <c r="B50" s="3">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4">
+        <v>32964</v>
+      </c>
+      <c r="B51" s="3">
+        <v>15.375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4">
+        <v>32994</v>
+      </c>
+      <c r="B52" s="3">
+        <v>15.1875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4">
+        <v>33025</v>
+      </c>
+      <c r="B53" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4">
+        <v>33055</v>
+      </c>
+      <c r="B54" s="3">
+        <v>15.0625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4">
+        <v>33086</v>
+      </c>
+      <c r="B55" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4">
+        <v>33117</v>
+      </c>
+      <c r="B56" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4">
+        <v>33147</v>
+      </c>
+      <c r="B57" s="3">
+        <v>13.6875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4">
+        <v>33178</v>
+      </c>
+      <c r="B58" s="3">
+        <v>13.625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4">
+        <v>33208</v>
+      </c>
+      <c r="B59" s="3">
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4">
+        <v>33239</v>
+      </c>
+      <c r="B60" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4">
+        <v>33270</v>
+      </c>
+      <c r="B61" s="3">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4">
+        <v>33298</v>
+      </c>
+      <c r="B62" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4">
+        <v>33329</v>
+      </c>
+      <c r="B63" s="3">
+        <v>11.8125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4">
+        <v>33359</v>
+      </c>
+      <c r="B64" s="3">
+        <v>11.39063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4">
+        <v>33390</v>
+      </c>
+      <c r="B65" s="3">
+        <v>11.375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4">
+        <v>33420</v>
+      </c>
+      <c r="B66" s="3">
+        <v>11.1875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4">
+        <v>33451</v>
+      </c>
+      <c r="B67" s="3">
+        <v>10.875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4">
+        <v>33482</v>
+      </c>
+      <c r="B68" s="3">
+        <v>10.375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4">
+        <v>33512</v>
+      </c>
+      <c r="B69" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="4">
+        <v>33543</v>
+      </c>
+      <c r="B70" s="3">
+        <v>10.6875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="4">
+        <v>33573</v>
+      </c>
+      <c r="B71" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4">
+        <v>33604</v>
+      </c>
+      <c r="B72" s="3">
+        <v>10.742190000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="4">
+        <v>33635</v>
+      </c>
+      <c r="B73" s="3">
+        <v>10.375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="4">
+        <v>33664</v>
+      </c>
+      <c r="B74" s="3">
+        <v>10.875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4">
+        <v>33695</v>
+      </c>
+      <c r="B75" s="3">
+        <v>10.625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4">
+        <v>33725</v>
+      </c>
+      <c r="B76" s="3">
+        <v>10.0625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4">
+        <v>33756</v>
+      </c>
+      <c r="B77" s="3">
+        <v>10.1875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4">
+        <v>33786</v>
+      </c>
+      <c r="B78" s="3">
+        <v>10.375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4">
+        <v>33817</v>
+      </c>
+      <c r="B79" s="3">
+        <v>10.625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4">
+        <v>33848</v>
+      </c>
+      <c r="B80" s="3">
+        <v>9.0625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4">
+        <v>33878</v>
+      </c>
+      <c r="B81" s="3">
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4">
+        <v>33909</v>
+      </c>
+      <c r="B82" s="3">
+        <v>7.4375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4">
+        <v>33939</v>
+      </c>
+      <c r="B83" s="3">
+        <v>7.0703100000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4">
+        <v>33970</v>
+      </c>
+      <c r="B84" s="3">
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4">
+        <v>34001</v>
+      </c>
+      <c r="B85" s="3">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4">
+        <v>34029</v>
+      </c>
+      <c r="B86" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4">
+        <v>34060</v>
+      </c>
+      <c r="B87" s="3">
+        <v>6.1875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4">
+        <v>34090</v>
+      </c>
+      <c r="B88" s="3">
+        <v>5.9375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4">
+        <v>34121</v>
+      </c>
+      <c r="B89" s="3">
+        <v>6.0625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4">
+        <v>34151</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5.8906299999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="4">
+        <v>34182</v>
+      </c>
+      <c r="B91" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4">
+        <v>34213</v>
+      </c>
+      <c r="B92" s="3">
+        <v>6.0625</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4">
+        <v>34243</v>
+      </c>
+      <c r="B93" s="3">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4">
+        <v>34274</v>
+      </c>
+      <c r="B94" s="3">
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="4">
+        <v>34304</v>
+      </c>
+      <c r="B95" s="3">
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="4">
+        <v>34335</v>
+      </c>
+      <c r="B96" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4">
+        <v>34366</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5.1875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4">
+        <v>34394</v>
+      </c>
+      <c r="B98" s="3">
+        <v>5.3828100000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="4">
+        <v>34425</v>
+      </c>
+      <c r="B99" s="3">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4">
+        <v>34455</v>
+      </c>
+      <c r="B100" s="3">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4">
+        <v>34486</v>
+      </c>
+      <c r="B101" s="3">
+        <v>5.2031299999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4">
+        <v>34516</v>
+      </c>
+      <c r="B102" s="3">
+        <v>5.6093799999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4">
+        <v>34547</v>
+      </c>
+      <c r="B103" s="3">
+        <v>5.5625</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4">
+        <v>34578</v>
+      </c>
+      <c r="B104" s="3">
+        <v>5.9140600000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4">
+        <v>34608</v>
+      </c>
+      <c r="B105" s="3">
+        <v>6.0625</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4">
+        <v>34639</v>
+      </c>
+      <c r="B106" s="3">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4">
+        <v>34669</v>
+      </c>
+      <c r="B107" s="3">
+        <v>6.6796899999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4">
+        <v>34700</v>
+      </c>
+      <c r="B108" s="3">
+        <v>6.7968799999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4">
+        <v>34731</v>
+      </c>
+      <c r="B109" s="3">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4">
+        <v>34759</v>
+      </c>
+      <c r="B110" s="3">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4">
+        <v>34790</v>
+      </c>
+      <c r="B111" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4">
+        <v>34820</v>
+      </c>
+      <c r="B112" s="3">
+        <v>6.6875</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4">
+        <v>34851</v>
+      </c>
+      <c r="B113" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4">
+        <v>34881</v>
+      </c>
+      <c r="B114" s="3">
+        <v>6.9375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4">
+        <v>34912</v>
+      </c>
+      <c r="B115" s="3">
+        <v>6.8515600000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4">
+        <v>34943</v>
+      </c>
+      <c r="B116" s="3">
+        <v>6.8281299999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4">
+        <v>34973</v>
+      </c>
+      <c r="B117" s="3">
+        <v>6.8125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4">
+        <v>35004</v>
+      </c>
+      <c r="B118" s="3">
+        <v>6.5859399999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4">
+        <v>35034</v>
+      </c>
+      <c r="B119" s="3">
+        <v>6.5625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4">
+        <v>35065</v>
+      </c>
+      <c r="B120" s="3">
+        <v>6.3125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4">
+        <v>35096</v>
+      </c>
+      <c r="B121" s="3">
+        <v>6.1875</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4">
+        <v>35125</v>
+      </c>
+      <c r="B122" s="3">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="4">
+        <v>35156</v>
+      </c>
+      <c r="B123" s="3">
+        <v>6.0703100000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="4">
+        <v>35186</v>
+      </c>
+      <c r="B124" s="3">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="4">
+        <v>35217</v>
+      </c>
+      <c r="B125" s="3">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="4">
+        <v>35247</v>
+      </c>
+      <c r="B126" s="3">
+        <v>5.8281299999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="4">
+        <v>35278</v>
+      </c>
+      <c r="B127" s="3">
+        <v>5.8125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="4">
+        <v>35309</v>
+      </c>
+      <c r="B128" s="3">
+        <v>5.9531299999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="4">
+        <v>35339</v>
+      </c>
+      <c r="B129" s="3">
+        <v>6.28125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="4">
+        <v>35370</v>
+      </c>
+      <c r="B130" s="3">
+        <v>6.4296899999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="4">
+        <v>35400</v>
+      </c>
+      <c r="B131" s="3">
+        <v>6.5468799999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="4">
+        <v>35431</v>
+      </c>
+      <c r="B132" s="3">
+        <v>6.3281299999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="4">
+        <v>35462</v>
+      </c>
+      <c r="B133" s="3">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="4">
+        <v>35490</v>
+      </c>
+      <c r="B134" s="3">
+        <v>6.4023399999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="4">
+        <v>35521</v>
+      </c>
+      <c r="B135" s="3">
+        <v>6.5625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="4">
+        <v>35551</v>
+      </c>
+      <c r="B136" s="3">
+        <v>6.625</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="4">
+        <v>35582</v>
+      </c>
+      <c r="B137" s="3">
+        <v>6.9023399999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="4">
+        <v>35612</v>
+      </c>
+      <c r="B138" s="3">
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="4">
+        <v>35643</v>
+      </c>
+      <c r="B139" s="3">
+        <v>7.3125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="4">
+        <v>35674</v>
+      </c>
+      <c r="B140" s="3">
+        <v>7.3085899999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="4">
+        <v>35704</v>
+      </c>
+      <c r="B141" s="3">
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="4">
+        <v>35735</v>
+      </c>
+      <c r="B142" s="3">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="4">
+        <v>35765</v>
+      </c>
+      <c r="B143" s="3">
+        <v>7.6875</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="4">
+        <v>35796</v>
+      </c>
+      <c r="B144" s="3">
+        <v>7.5625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="4">
+        <v>35827</v>
+      </c>
+      <c r="B145" s="3">
+        <v>7.5625</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="4">
+        <v>35855</v>
+      </c>
+      <c r="B146" s="3">
+        <v>7.5976600000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="4">
+        <v>35886</v>
+      </c>
+      <c r="B147" s="3">
+        <v>7.4960899999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="4">
+        <v>35916</v>
+      </c>
+      <c r="B148" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="4">
+        <v>35947</v>
+      </c>
+      <c r="B149" s="3">
+        <v>7.8671899999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="4">
+        <v>35977</v>
+      </c>
+      <c r="B150" s="3">
+        <v>7.7617200000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="4">
+        <v>36008</v>
+      </c>
+      <c r="B151" s="3">
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="4">
+        <v>36039</v>
+      </c>
+      <c r="B152" s="3">
+        <v>7.3710899999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="4">
+        <v>36069</v>
+      </c>
+      <c r="B153" s="3">
+        <v>7.1749999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="4">
+        <v>36100</v>
+      </c>
+      <c r="B154" s="3">
+        <v>6.88063</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="4">
+        <v>36130</v>
+      </c>
+      <c r="B155" s="3">
+        <v>6.2576599999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="4">
+        <v>36161</v>
+      </c>
+      <c r="B156" s="3">
+        <v>5.8159400000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="4">
+        <v>36192</v>
+      </c>
+      <c r="B157" s="3">
+        <v>5.4615600000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="4">
+        <v>36220</v>
+      </c>
+      <c r="B158" s="3">
+        <v>5.3240600000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="4">
+        <v>36251</v>
+      </c>
+      <c r="B159" s="3">
+        <v>5.3312499999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="4">
+        <v>36281</v>
+      </c>
+      <c r="B160" s="3">
+        <v>5.3731299999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="4">
+        <v>36312</v>
+      </c>
+      <c r="B161" s="3">
+        <v>5.1878099999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="4">
+        <v>36342</v>
+      </c>
+      <c r="B162" s="3">
+        <v>5.2703100000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="4">
+        <v>36373</v>
+      </c>
+      <c r="B163" s="3">
+        <v>5.2165600000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="4">
+        <v>36404</v>
+      </c>
+      <c r="B164" s="3">
+        <v>5.5603100000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="4">
+        <v>36434</v>
+      </c>
+      <c r="B165" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="4">
+        <v>36465</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5.9987500000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="4">
+        <v>36495</v>
+      </c>
+      <c r="B167" s="3">
+        <v>6.0784399999999996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="4">
+        <v>36526</v>
+      </c>
+      <c r="B168" s="3">
+        <v>6.2259399999999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="4">
+        <v>36557</v>
+      </c>
+      <c r="B169" s="3">
+        <v>6.2537500000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="4">
+        <v>36586</v>
+      </c>
+      <c r="B170" s="3">
+        <v>6.2512499999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="4">
+        <v>36617</v>
+      </c>
+      <c r="B171" s="3">
+        <v>6.3650000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="4">
+        <v>36647</v>
+      </c>
+      <c r="B172" s="3">
+        <v>6.2789099999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="4">
+        <v>36678</v>
+      </c>
+      <c r="B173" s="3">
+        <v>6.2248400000000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="4">
+        <v>36708</v>
+      </c>
+      <c r="B174" s="3">
+        <v>6.2262500000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="4">
+        <v>36739</v>
+      </c>
+      <c r="B175" s="3">
+        <v>6.2462499999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="4">
+        <v>36770</v>
+      </c>
+      <c r="B176" s="3">
+        <v>6.1775000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="4">
+        <v>36800</v>
+      </c>
+      <c r="B177" s="3">
+        <v>6.1456299999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="4">
+        <v>36831</v>
+      </c>
+      <c r="B178" s="3">
+        <v>6.03531</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="4">
+        <v>36861</v>
+      </c>
+      <c r="B179" s="3">
+        <v>5.8990600000000004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="4">
+        <v>36892</v>
+      </c>
+      <c r="B180" s="3">
+        <v>5.79406</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="4">
+        <v>36923</v>
+      </c>
+      <c r="B181" s="3">
+        <v>5.6468800000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="4">
+        <v>36951</v>
+      </c>
+      <c r="B182" s="3">
+        <v>5.5264100000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="4">
+        <v>36982</v>
+      </c>
+      <c r="B183" s="3">
+        <v>5.3404699999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="4">
+        <v>37012</v>
+      </c>
+      <c r="B184" s="3">
+        <v>5.2537500000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="4">
+        <v>37043</v>
+      </c>
+      <c r="B185" s="3">
+        <v>5.2939100000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="4">
+        <v>37073</v>
+      </c>
+      <c r="B186" s="3">
+        <v>5.2462499999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="4">
+        <v>37104</v>
+      </c>
+      <c r="B187" s="3">
+        <v>4.9337499999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="4">
+        <v>37135</v>
+      </c>
+      <c r="B188" s="3">
+        <v>4.5265599999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="4">
+        <v>37165</v>
+      </c>
+      <c r="B189" s="3">
+        <v>4.2212500000000004</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="4">
+        <v>37196</v>
+      </c>
+      <c r="B190" s="3">
+        <v>4.0237499999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="4">
+        <v>37226</v>
+      </c>
+      <c r="B191" s="3">
+        <v>4.1062500000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="4">
+        <v>37257</v>
+      </c>
+      <c r="B192" s="3">
+        <v>4.0575000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="4">
+        <v>37288</v>
+      </c>
+      <c r="B193" s="3">
+        <v>4.0562500000000004</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="4">
+        <v>37316</v>
+      </c>
+      <c r="B194" s="3">
+        <v>4.1868800000000004</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="4">
+        <v>37347</v>
+      </c>
+      <c r="B195" s="3">
+        <v>4.1503100000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="4">
+        <v>37377</v>
+      </c>
+      <c r="B196" s="3">
+        <v>4.1906299999999996</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="4">
+        <v>37408</v>
+      </c>
+      <c r="B197" s="3">
+        <v>4.14656</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="4">
+        <v>37438</v>
+      </c>
+      <c r="B198" s="3">
+        <v>4.0025000000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="4">
+        <v>37469</v>
+      </c>
+      <c r="B199" s="3">
+        <v>4.00875</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="4">
+        <v>37500</v>
+      </c>
+      <c r="B200" s="3">
+        <v>3.9406300000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="4">
+        <v>37530</v>
+      </c>
+      <c r="B201" s="3">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="4">
+        <v>37561</v>
+      </c>
+      <c r="B202" s="3">
+        <v>4.0314100000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="4">
+        <v>37591</v>
+      </c>
+      <c r="B203" s="3">
+        <v>4.0225</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="4">
+        <v>37622</v>
+      </c>
+      <c r="B204" s="3">
+        <v>3.9624999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="4">
+        <v>37653</v>
+      </c>
+      <c r="B205" s="3">
+        <v>3.68344</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="4">
+        <v>37681</v>
+      </c>
+      <c r="B206" s="3">
+        <v>3.6570299999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="4">
+        <v>37712</v>
+      </c>
+      <c r="B207" s="3">
+        <v>3.62188</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="4">
+        <v>37742</v>
+      </c>
+      <c r="B208" s="3">
+        <v>3.6256300000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="4">
+        <v>37773</v>
+      </c>
+      <c r="B209" s="3">
+        <v>3.6412499999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="4">
+        <v>37803</v>
+      </c>
+      <c r="B210" s="3">
+        <v>3.4412500000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="4">
+        <v>37834</v>
+      </c>
+      <c r="B211" s="3">
+        <v>3.6318800000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="4">
+        <v>37865</v>
+      </c>
+      <c r="B212" s="3">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="4">
+        <v>37895</v>
+      </c>
+      <c r="B213" s="3">
+        <v>3.9474999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="4">
+        <v>37926</v>
+      </c>
+      <c r="B214" s="3">
+        <v>3.9831300000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="4">
+        <v>37956</v>
+      </c>
+      <c r="B215" s="3">
+        <v>4.0374999999999996</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="4">
+        <v>37987</v>
+      </c>
+      <c r="B216" s="3">
+        <v>4.1449999999999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="4">
+        <v>38018</v>
+      </c>
+      <c r="B217" s="3">
+        <v>4.2043799999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="4">
+        <v>38047</v>
+      </c>
+      <c r="B218" s="3">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="4">
+        <v>38078</v>
+      </c>
+      <c r="B219" s="3">
+        <v>4.4337499999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="4">
+        <v>38108</v>
+      </c>
+      <c r="B220" s="3">
+        <v>4.6574999999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="4">
+        <v>38139</v>
+      </c>
+      <c r="B221" s="3">
+        <v>4.84375</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="4">
+        <v>38169</v>
+      </c>
+      <c r="B222" s="3">
+        <v>4.9387499999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="4">
+        <v>38200</v>
+      </c>
+      <c r="B223" s="3">
+        <v>4.9625000000000004</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="4">
+        <v>38231</v>
+      </c>
+      <c r="B224" s="3">
+        <v>4.9187500000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="4">
+        <v>38261</v>
+      </c>
+      <c r="B225" s="3">
+        <v>4.8975</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="4">
+        <v>38292</v>
+      </c>
+      <c r="B226" s="3">
+        <v>4.8590600000000004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="4">
+        <v>38322</v>
+      </c>
+      <c r="B227" s="3">
+        <v>4.8849999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="4">
+        <v>38353</v>
+      </c>
+      <c r="B228" s="3">
+        <v>4.8681299999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="4">
+        <v>38384</v>
+      </c>
+      <c r="B229" s="3">
+        <v>4.9562499999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="4">
+        <v>38412</v>
+      </c>
+      <c r="B230" s="3">
+        <v>4.9831300000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="4">
+        <v>38443</v>
+      </c>
+      <c r="B231" s="3">
+        <v>4.9387499999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="4">
+        <v>38473</v>
+      </c>
+      <c r="B232" s="3">
+        <v>4.8668800000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="4">
+        <v>38504</v>
+      </c>
+      <c r="B233" s="3">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="4">
+        <v>38534</v>
+      </c>
+      <c r="B234" s="3">
+        <v>4.6193799999999996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="4">
+        <v>38565</v>
+      </c>
+      <c r="B235" s="3">
+        <v>4.5893800000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="4">
+        <v>38596</v>
+      </c>
+      <c r="B236" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="4">
+        <v>38626</v>
+      </c>
+      <c r="B237" s="3">
+        <v>4.6068800000000003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="4">
+        <v>38657</v>
+      </c>
+      <c r="B238" s="3">
+        <v>4.6174999999999997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="4">
+        <v>38687</v>
+      </c>
+      <c r="B239" s="3">
+        <v>4.6393800000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="4">
+        <v>38718</v>
+      </c>
+      <c r="B240" s="3">
+        <v>4.5981300000000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="4">
+        <v>38749</v>
+      </c>
+      <c r="B241" s="3">
+        <v>4.5787500000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="4">
+        <v>38777</v>
+      </c>
+      <c r="B242" s="3">
+        <v>4.6118800000000002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="4">
+        <v>38808</v>
+      </c>
+      <c r="B243" s="3">
+        <v>4.665</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="4">
+        <v>38838</v>
+      </c>
+      <c r="B244" s="3">
+        <v>4.7106300000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="4">
+        <v>38869</v>
+      </c>
+      <c r="B245" s="3">
+        <v>4.7537500000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="4">
+        <v>38899</v>
+      </c>
+      <c r="B246" s="3">
+        <v>4.7768800000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="4">
+        <v>38930</v>
+      </c>
+      <c r="B247" s="3">
+        <v>4.9824999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="4">
+        <v>38961</v>
+      </c>
+      <c r="B248" s="3">
+        <v>5.0739999999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="4">
+        <v>38991</v>
+      </c>
+      <c r="B249" s="3">
+        <v>5.1924999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="4">
+        <v>39022</v>
+      </c>
+      <c r="B250" s="3">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="4">
+        <v>39052</v>
+      </c>
+      <c r="B251" s="3">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="4">
+        <v>39083</v>
+      </c>
+      <c r="B252" s="3">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="4">
+        <v>39114</v>
+      </c>
+      <c r="B253" s="3">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="4">
+        <v>39142</v>
+      </c>
+      <c r="B254" s="3">
+        <v>5.6168800000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="4">
+        <v>39173</v>
+      </c>
+      <c r="B255" s="3">
+        <v>5.7262500000000003</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="4">
+        <v>39203</v>
+      </c>
+      <c r="B256" s="3">
+        <v>5.8106299999999997</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="4">
+        <v>39234</v>
+      </c>
+      <c r="B257" s="3">
+        <v>6.0037500000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="4">
+        <v>39264</v>
+      </c>
+      <c r="B258" s="3">
+        <v>6.0431299999999997</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="4">
+        <v>39295</v>
+      </c>
+      <c r="B259" s="3">
+        <v>6.6924999999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="4">
+        <v>39326</v>
+      </c>
+      <c r="B260" s="3">
+        <v>6.30375</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="4">
+        <v>39356</v>
+      </c>
+      <c r="B261" s="3">
+        <v>6.2793799999999997</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="4">
+        <v>39387</v>
+      </c>
+      <c r="B262" s="3">
+        <v>6.6062500000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="4">
+        <v>39417</v>
+      </c>
+      <c r="B263" s="3">
+        <v>5.9937500000000004</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="4">
+        <v>39448</v>
+      </c>
+      <c r="B264" s="3">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="4">
+        <v>39479</v>
+      </c>
+      <c r="B265" s="3">
+        <v>5.7387499999999996</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="4">
+        <v>39508</v>
+      </c>
+      <c r="B266" s="3">
+        <v>6.0081300000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="4">
+        <v>39539</v>
+      </c>
+      <c r="B267" s="3">
+        <v>5.8387500000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="4">
+        <v>39569</v>
+      </c>
+      <c r="B268" s="3">
+        <v>5.8668800000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="4">
+        <v>39600</v>
+      </c>
+      <c r="B269" s="3">
+        <v>5.94625</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="4">
+        <v>39630</v>
+      </c>
+      <c r="B270" s="3">
+        <v>5.7831299999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="4">
+        <v>39661</v>
+      </c>
+      <c r="B271" s="3">
+        <v>5.7531299999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="4">
+        <v>39692</v>
+      </c>
+      <c r="B272" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="4">
+        <v>39722</v>
+      </c>
+      <c r="B273" s="3">
+        <v>5.8412499999999996</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="4">
+        <v>39753</v>
+      </c>
+      <c r="B274" s="3">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="4">
+        <v>39783</v>
+      </c>
+      <c r="B275" s="3">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="4">
+        <v>39814</v>
+      </c>
+      <c r="B276" s="3">
+        <v>2.1656300000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="4">
+        <v>39845</v>
+      </c>
+      <c r="B277" s="3">
+        <v>2.0493800000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="4">
+        <v>39873</v>
+      </c>
+      <c r="B278" s="3">
+        <v>1.6487499999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="4">
+        <v>39904</v>
+      </c>
+      <c r="B279" s="3">
+        <v>1.4518800000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="4">
+        <v>39934</v>
+      </c>
+      <c r="B280" s="3">
+        <v>1.27813</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="4">
+        <v>39965</v>
+      </c>
+      <c r="B281" s="3">
+        <v>1.18625</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="4">
+        <v>39995</v>
+      </c>
+      <c r="B282" s="3">
+        <v>0.88749999999999996</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="4">
+        <v>40026</v>
+      </c>
+      <c r="B283" s="3">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="4">
+        <v>40057</v>
+      </c>
+      <c r="B284" s="3">
+        <v>0.54188000000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="4">
+        <v>40087</v>
+      </c>
+      <c r="B285" s="3">
+        <v>0.59125000000000005</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="4">
+        <v>40118</v>
+      </c>
+      <c r="B286" s="3">
+        <v>0.61187999999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="4">
+        <v>40148</v>
+      </c>
+      <c r="B287" s="3">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="4">
+        <v>40179</v>
+      </c>
+      <c r="B288" s="3">
+        <v>0.61624999999999996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="4">
+        <v>40210</v>
+      </c>
+      <c r="B289" s="3">
+        <v>0.64249999999999996</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="4">
+        <v>40238</v>
+      </c>
+      <c r="B290" s="3">
+        <v>0.64719000000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="4">
+        <v>40269</v>
+      </c>
+      <c r="B291" s="3">
+        <v>0.67718999999999996</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="4">
+        <v>40299</v>
+      </c>
+      <c r="B292" s="3">
+        <v>0.71062999999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="4">
+        <v>40330</v>
+      </c>
+      <c r="B293" s="3">
+        <v>0.73031000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="4">
+        <v>40360</v>
+      </c>
+      <c r="B294" s="3">
+        <v>0.74516000000000004</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="4">
+        <v>40391</v>
+      </c>
+      <c r="B295" s="3">
+        <v>0.72546999999999995</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="4">
+        <v>40422</v>
+      </c>
+      <c r="B296" s="3">
+        <v>0.73224999999999996</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="4">
+        <v>40452</v>
+      </c>
+      <c r="B297" s="3">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="4">
+        <v>40483</v>
+      </c>
+      <c r="B298" s="3">
+        <v>0.73875000000000002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="4">
+        <v>40513</v>
+      </c>
+      <c r="B299" s="3">
+        <v>0.75749999999999995</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="4">
+        <v>40544</v>
+      </c>
+      <c r="B300" s="3">
+        <v>0.77688000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="4">
+        <v>40575</v>
+      </c>
+      <c r="B301" s="3">
+        <v>0.80249999999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="4">
+        <v>40603</v>
+      </c>
+      <c r="B302" s="3">
+        <v>0.81813000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="4">
+        <v>40634</v>
+      </c>
+      <c r="B303" s="3">
+        <v>0.82188000000000005</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="4">
+        <v>40664</v>
+      </c>
+      <c r="B304" s="3">
+        <v>0.82625000000000004</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="4">
+        <v>40695</v>
+      </c>
+      <c r="B305" s="3">
+        <v>0.82562999999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="4">
+        <v>40725</v>
+      </c>
+      <c r="B306" s="3">
+        <v>0.83281000000000005</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="4">
+        <v>40756</v>
+      </c>
+      <c r="B307" s="3">
+        <v>0.88624999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="4">
+        <v>40787</v>
+      </c>
+      <c r="B308" s="3">
+        <v>0.95250000000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="4">
+        <v>40817</v>
+      </c>
+      <c r="B309" s="3">
+        <v>0.98668999999999996</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="4">
+        <v>40848</v>
+      </c>
+      <c r="B310" s="3">
+        <v>1.0382499999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="4">
+        <v>40878</v>
+      </c>
+      <c r="B311" s="3">
+        <v>1.08006</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="4">
+        <v>40909</v>
+      </c>
+      <c r="B312" s="3">
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="4">
+        <v>40940</v>
+      </c>
+      <c r="B313" s="3">
+        <v>1.0596300000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="4">
+        <v>40969</v>
+      </c>
+      <c r="B314" s="3">
+        <v>1.02688</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="4">
+        <v>41000</v>
+      </c>
+      <c r="B315" s="3">
+        <v>1.0125</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="4">
+        <v>41030</v>
+      </c>
+      <c r="B316" s="3">
+        <v>0.99312999999999996</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="4">
+        <v>41061</v>
+      </c>
+      <c r="B317" s="3">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="4">
+        <v>41091</v>
+      </c>
+      <c r="B318" s="3">
+        <v>0.74375000000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="4">
+        <v>41122</v>
+      </c>
+      <c r="B319" s="3">
+        <v>0.68125000000000002</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="4">
+        <v>41153</v>
+      </c>
+      <c r="B320" s="3">
+        <v>0.59687999999999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="4">
+        <v>41183</v>
+      </c>
+      <c r="B321" s="3">
+        <v>0.52749999999999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="4">
+        <v>41214</v>
+      </c>
+      <c r="B322" s="3">
+        <v>0.52249999999999996</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="4">
+        <v>41244</v>
+      </c>
+      <c r="B323" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="4">
+        <v>41275</v>
+      </c>
+      <c r="B324" s="3">
+        <v>0.51124999999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="4">
+        <v>41306</v>
+      </c>
+      <c r="B325" s="3">
+        <v>0.50812999999999997</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="4">
+        <v>41334</v>
+      </c>
+      <c r="B326" s="3">
+        <v>0.50688</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="4">
+        <v>41365</v>
+      </c>
+      <c r="B327" s="3">
+        <v>0.50438000000000005</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="4">
+        <v>41395</v>
+      </c>
+      <c r="B328" s="3">
+        <v>0.50563000000000002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="4">
+        <v>41426</v>
+      </c>
+      <c r="B329" s="3">
+        <v>0.51037999999999994</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="4">
+        <v>41456</v>
+      </c>
+      <c r="B330" s="3">
+        <v>0.50856000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="4">
+        <v>41487</v>
+      </c>
+      <c r="B331" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="4">
+        <v>41518</v>
+      </c>
+      <c r="B332" s="3">
+        <v>0.51749999999999996</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="4">
+        <v>41548</v>
+      </c>
+      <c r="B333" s="3">
+        <v>0.51375000000000004</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="4">
+        <v>41579</v>
+      </c>
+      <c r="B334" s="3">
+        <v>0.52219000000000004</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="4">
+        <v>41609</v>
+      </c>
+      <c r="B335" s="3">
+        <v>0.52531000000000005</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="4">
+        <v>41640</v>
+      </c>
+      <c r="B336" s="3">
+        <v>0.52124999999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="4">
+        <v>41671</v>
+      </c>
+      <c r="B337" s="3">
+        <v>0.52188000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="4">
+        <v>41699</v>
+      </c>
+      <c r="B338" s="3">
+        <v>0.52219000000000004</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="4">
+        <v>41730</v>
+      </c>
+      <c r="B339" s="3">
+        <v>0.52705999999999997</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="4">
+        <v>41760</v>
+      </c>
+      <c r="B340" s="3">
+        <v>0.53063000000000005</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="4">
+        <v>41791</v>
+      </c>
+      <c r="B341" s="3">
+        <v>0.55249999999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="4">
+        <v>41821</v>
+      </c>
+      <c r="B342" s="3">
+        <v>0.55962999999999996</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="4">
+        <v>41852</v>
+      </c>
+      <c r="B343" s="3">
+        <v>0.55962999999999996</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="4">
+        <v>41883</v>
+      </c>
+      <c r="B344" s="3">
+        <v>0.56525000000000003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="4">
+        <v>41913</v>
+      </c>
+      <c r="B345" s="3">
+        <v>0.55337999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>